--- a/web-django_document.xlsx
+++ b/web-django_document.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\900016\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\900016\Desktop\Django\django_training\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="161">
   <si>
     <t>Kiến trúc hệ thống Django</t>
   </si>
@@ -401,6 +401,9 @@
     <t>Django アプリケーション</t>
   </si>
   <si>
+    <t>プロジェクト-ZEN-には、exs_main、zmというアプリがあります</t>
+  </si>
+  <si>
     <r>
       <t>Django プロジェクトは大体の場合、 </t>
     </r>
@@ -422,18 +425,344 @@
         <family val="1"/>
         <charset val="128"/>
       </rPr>
-      <t> に宣言された数々のアプリケーションから成ります。</t>
+      <t> に宣言された数々の</t>
     </r>
   </si>
   <si>
-    <t>プロジェクト-ZEN-には、exs_main、zmというアプリがあります</t>
+    <t>アプリケーションから成ります。</t>
+  </si>
+  <si>
+    <t>ログインを開始</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khi bắt đầu đăng nhập vào địa chỉ trang chủ 127.0.0.1 django sẽ kiểm tra </t>
+  </si>
+  <si>
+    <t>trong file urls.py đường dẫn tương ứng rồi chuyển đến lớp tương ứng</t>
+  </si>
+  <si>
+    <t>Sau đó sẽ chuyển tiếp đến file urls.py của app ZM</t>
+  </si>
+  <si>
+    <t>バース：￥web-django\src\webapp\zm\urls.py</t>
+  </si>
+  <si>
+    <t>バース：￥web-django\src\webapp\zm\page\login.py</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>Từ file urls.py của app ZM gọi đến hàm as_view() của class zmLoginView</t>
+  </si>
+  <si>
+    <t>Class zmLoginView thừa kế từ lớp BaseHtmlView()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BaseHtmlView() là lớp cơ sở cơ bản, đây là lớp định nghĩa các phương </t>
+  </si>
+  <si>
+    <t>thức views của hệ thống. Các lớp con phụ trách thực hiện các request và</t>
+  </si>
+  <si>
+    <t>バース：￥web-django\src\webapp\esx_main\views.py</t>
+  </si>
+  <si>
+    <t>trả về các response để hiển thị ra màn hình đều kế thừa từ lớp BaseHtmlview()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trong class BaseHtmlView có 2 phương thức cơ bản đó là </t>
+  </si>
+  <si>
+    <t>get(self,request,*args, **kwargs) và post(self,request,*args, **kwargs)</t>
+  </si>
+  <si>
+    <t>Đây là 2 hàm cơ bản nhất của Class để xử lý các request mà client gửi lên</t>
+  </si>
+  <si>
+    <t>theo từng phương thức cụ thể là get hoặc post</t>
+  </si>
+  <si>
+    <t>get: khi client muốn yêu cầu chuyển tiếp đến một page với các tham số qua urls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">post: khi client muốn gửi lên data yêu cầu server xác thực hoặc các </t>
+  </si>
+  <si>
+    <t>Các request của Client gửi lên server sẽ đều đi đến hai phương thức này</t>
+  </si>
+  <si>
+    <t>Trong class BaseHtmlView còn các phương thức khác để xử lý các công việc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">khác và chúng đều có thể được ghi đè bởi các lớp con kế thừa từ lớp </t>
+  </si>
+  <si>
+    <t>Biến config được khởi tạo trong class rất quan trọng. Sau này tất cả dữ</t>
+  </si>
+  <si>
+    <t>liệu mà server gửi về cho client đều được đặt trong biến config này</t>
+  </si>
+  <si>
+    <t>def __init__(self):</t>
+  </si>
+  <si>
+    <t>        self.config = {'site_encode': 'UTF-8',}</t>
+  </si>
+  <si>
+    <t>        self.viewrequest = None</t>
+  </si>
+  <si>
+    <t>        self.__initConfig()</t>
+  </si>
+  <si>
+    <t>        self.default_js = []</t>
+  </si>
+  <si>
+    <t>        self.default_css = []</t>
+  </si>
+  <si>
+    <t>thông qua phương thức render()</t>
+  </si>
+  <si>
+    <t>View: zm/top/index.py</t>
+  </si>
+  <si>
+    <t>Xml: zm/top/menu/xml/menu.xml</t>
+  </si>
+  <si>
+    <t>View: zm/page/login.py</t>
+  </si>
+  <si>
+    <t>Template:zm/templates/login.html</t>
+  </si>
+  <si>
+    <t>urls: url(r'^login/$',  login.zmLoginView.as_view())</t>
+  </si>
+  <si>
+    <t>yêu cầu về tìm kiếm, các phép toán logic thao tác với csdl,…</t>
+  </si>
+  <si>
+    <t>Vì thế khi debug ta có thể đặt breakpoint tại hai phương thức trên</t>
+  </si>
+  <si>
+    <t>Sau khi login xong thì sẽ được chuyển tiếp đến phần company</t>
+  </si>
+  <si>
+    <t>Model: ORGANAIZATION_000</t>
+  </si>
+  <si>
+    <t>View: ￥web-django\src\webapp\zm\page\company.py</t>
+  </si>
+  <si>
+    <t>Template: zm/templates/company.html</t>
+  </si>
+  <si>
+    <t>BaseHtmlView để thực hiện các xử lý riêng</t>
+  </si>
+  <si>
+    <t>để hiển thị trong phần company</t>
+  </si>
+  <si>
+    <t>Hàm sẽ lấy data trong bảng ORGANAIZATION_000 với dữ liệu column cooperative_name</t>
+  </si>
+  <si>
+    <t>Nên nếu ta muốn tạo thêm các hiển thị trong page company thì ta sẽ thêm</t>
+  </si>
+  <si>
+    <t>data tại column ORGANAIZATION_000</t>
+  </si>
+  <si>
+    <t>url: re_path(r'^company/(?P&lt;uri&gt;.*)',  company.zmCompanyView.as_view())</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khi được gọi, công việc của nó là sử dụng dispatch để xử lý truy vấn từ </t>
+  </si>
+  <si>
+    <t>người dùng và gọi đến các hàm xử lý tương ứng.</t>
+  </si>
+  <si>
+    <t>Sơ đồ hoạt động của Django</t>
+  </si>
+  <si>
+    <t>Sơ đồ tổng quát</t>
+  </si>
+  <si>
+    <t>Sơ đồ chi tiết</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sẽ biết được là phương thức GET hay POST để gọi đến hàm xử lý các phương </t>
+  </si>
+  <si>
+    <t>thức tương ứng.</t>
+  </si>
+  <si>
+    <t>・user sẽ gửi yêu cầu (request) thông qua url. Phương thức dispatch của Django</t>
+  </si>
+  <si>
+    <t xml:space="preserve">・ở server các view sẽ xử lý và gửi kết quả xử lý (response) để kết hợp </t>
+  </si>
+  <si>
+    <t xml:space="preserve">với template thông qua Http render sau đó trả về cho user thông qua </t>
+  </si>
+  <si>
+    <t>Http response</t>
+  </si>
+  <si>
+    <t>(?P&lt;uri&gt;.*): sẽ được sử dụng làm tham số</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ví dụ: </t>
+  </si>
+  <si>
+    <r>
+      <t>Ví dụ: https://prac-toitsu-unification.ad.zenjukyo.gr.jp/company/</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>?next=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>/</t>
+    </r>
+  </si>
+  <si>
+    <t>・(?P&lt;uri&gt;.*) = ?next=</t>
+  </si>
+  <si>
+    <t>getTemplate(self): phương thức gọi tên file html sẽ được sử dụng</t>
+  </si>
+  <si>
+    <t>doPostEvent(self, json): phương thức xử lý khi user gửi lên phương thức POST</t>
+  </si>
+  <si>
+    <t>doPageHtml():phương thức chính xử lý hiển thị chức năng company</t>
+  </si>
+  <si>
+    <t>phương thức của class zmCompanyView ghi đè phương thức doPageHtml() của</t>
+  </si>
+  <si>
+    <t>lớp BaseHtmlView()</t>
+  </si>
+  <si>
+    <r>
+      <t>return render(request, self.getTemplate(), </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>self.config</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Chuyển sang giao diện TOP</t>
+  </si>
+  <si>
+    <t>Template:zm/templates/top.html</t>
+  </si>
+  <si>
+    <t>url: re_path(r'', include('zm.page.top.urls')),</t>
+  </si>
+  <si>
+    <t>Khi click vào một Button bất kì, django sẽ chuyển tiếp đến trang TOP</t>
+  </si>
+  <si>
+    <t>https://prac-toitsu-unification.ad.zenjukyo.gr.jp/</t>
+  </si>
+  <si>
+    <t>'zm.page.top.urls'</t>
+  </si>
+  <si>
+    <t>urls: sẽ include file zm.page.top.urls và trong file zm.page.top.urls gọi đến TopView.as_view()</t>
+  </si>
+  <si>
+    <t>class TopView nằm trong file zm/top/index.py</t>
+  </si>
+  <si>
+    <t>class TopView</t>
+  </si>
+  <si>
+    <t>class TopView thừa kế từ class AbstractPage</t>
+  </si>
+  <si>
+    <t>class AbstractPage thừa kế từ class ZmPageHtmlView</t>
+  </si>
+  <si>
+    <t>class ZmPageHtmlView thừa kế từ class BaseHtmlView</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; class TopView sẽ thừa kế từ class BaseHtmlView</t>
+  </si>
+  <si>
+    <t>Sơ đồ Class View</t>
+  </si>
+  <si>
+    <t>Sơ đồ template</t>
+  </si>
+  <si>
+    <t>Bố cục một file html bao gồm các khối {%block%}{%endblock%}</t>
+  </si>
+  <si>
+    <t>Trong các khối block đó là code html</t>
+  </si>
+  <si>
+    <t>Các block được phân biệt bởi tên</t>
+  </si>
+  <si>
+    <t>{%block block_name%}{%endblock%}</t>
+  </si>
+  <si>
+    <t>Các file html khác kế thừa từ file exs_main.html thì sẽ được phép</t>
+  </si>
+  <si>
+    <t>overwrite các khối block này</t>
+  </si>
+  <si>
+    <t>Ví dụ:</t>
+  </si>
+  <si>
+    <t>zm/templates/zm.html thừa kế từ file exs_main.html sẽ được phép</t>
+  </si>
+  <si>
+    <t>overwrite các khối block body_header</t>
+  </si>
+  <si>
+    <t>Chu trình source code</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -488,6 +817,65 @@
       <family val="1"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -509,13 +897,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -641,6 +1044,2337 @@
         <a:xfrm>
           <a:off x="19050" y="16182975"/>
           <a:ext cx="5350487" cy="2409825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>151989</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>85409</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="523875" y="25136475"/>
+          <a:ext cx="3285714" cy="2523809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>230</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>536653</xdr:colOff>
+      <xdr:row>250</xdr:row>
+      <xdr:rowOff>18592</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="29898975"/>
+          <a:ext cx="5413453" cy="3399967"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>253</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>536651</xdr:colOff>
+      <xdr:row>268</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="104774" y="41147999"/>
+          <a:ext cx="5308677" cy="2524126"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>281</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>530138</xdr:colOff>
+      <xdr:row>294</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="66676" y="38347651"/>
+          <a:ext cx="5340262" cy="2266949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>297</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>506423</xdr:colOff>
+      <xdr:row>319</xdr:row>
+      <xdr:rowOff>27998</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="47626" y="41147999"/>
+          <a:ext cx="5335597" cy="3647499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>336</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>433435</xdr:colOff>
+      <xdr:row>361</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="47834549"/>
+          <a:ext cx="5310235" cy="4191001"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>444</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>580800</xdr:colOff>
+      <xdr:row>455</xdr:row>
+      <xdr:rowOff>56910</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="63379350"/>
+          <a:ext cx="1800000" cy="1923810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>500466</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="図 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="114300" y="29117925"/>
+          <a:ext cx="5262966" cy="3105150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>359550</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>102375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>426225</xdr:colOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>121425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="図 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="359550" y="32820750"/>
+          <a:ext cx="4943475" cy="3619500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>418</xdr:row>
+      <xdr:rowOff>9693</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>431</xdr:row>
+      <xdr:rowOff>113931</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="図 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="72056793"/>
+          <a:ext cx="5343525" cy="2333088"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>133351</xdr:colOff>
+      <xdr:row>394</xdr:row>
+      <xdr:rowOff>36685</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>514351</xdr:colOff>
+      <xdr:row>416</xdr:row>
+      <xdr:rowOff>37500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="図 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="133351" y="67968985"/>
+          <a:ext cx="5257800" cy="3772715"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>459</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>516378</xdr:colOff>
+      <xdr:row>484</xdr:row>
+      <xdr:rowOff>75638</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="図 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="79286100"/>
+          <a:ext cx="5393178" cy="4228538"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>500</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>380361</xdr:colOff>
+      <xdr:row>518</xdr:row>
+      <xdr:rowOff>85330</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="図 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="142875" y="86191725"/>
+          <a:ext cx="5114286" cy="3161905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>526</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>548</xdr:row>
+      <xdr:rowOff>38915</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="図 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="47625" y="90678000"/>
+          <a:ext cx="5257800" cy="3772715"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>536</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>541</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="テキスト ボックス 19"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="838200" y="92506800"/>
+          <a:ext cx="2152650" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>53084</xdr:colOff>
+      <xdr:row>556</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>537527</xdr:colOff>
+      <xdr:row>576</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="図 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="53084" y="95811974"/>
+          <a:ext cx="5361243" cy="3514726"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>578</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>345083</xdr:colOff>
+      <xdr:row>592</xdr:row>
+      <xdr:rowOff>37698</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="図 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="47625" y="99574350"/>
+          <a:ext cx="5174258" cy="2418948"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>603</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>342344</xdr:colOff>
+      <xdr:row>615</xdr:row>
+      <xdr:rowOff>94994</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="図 22"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="161925" y="103679625"/>
+          <a:ext cx="4447619" cy="2047619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>619</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>485119</xdr:colOff>
+      <xdr:row>653</xdr:row>
+      <xdr:rowOff>56426</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="図 23"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="114300" y="106794300"/>
+          <a:ext cx="5247619" cy="5790476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>667</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>671</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="正方形/長方形 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1790700" y="115090574"/>
+          <a:ext cx="1285875" cy="676275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>class django.views</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>673</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>677</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="正方形/長方形 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1781175" y="116090700"/>
+          <a:ext cx="1285875" cy="676275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>class BaseHtmlview</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>679</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>683</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="正方形/長方形 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1790700" y="117138450"/>
+          <a:ext cx="1285875" cy="676275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>class ZmPageHtmlView</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>686</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>689</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="正方形/長方形 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1800225" y="118186200"/>
+          <a:ext cx="1285875" cy="676275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>class </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>AbstractPage</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>692</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>696</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="正方形/長方形 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1800225" y="119262525"/>
+          <a:ext cx="1285875" cy="676275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>class</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TopView</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4763</xdr:colOff>
+      <xdr:row>689</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4763</xdr:colOff>
+      <xdr:row>692</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="直線矢印コネクタ 30"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="29" idx="0"/>
+          <a:endCxn id="28" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2443163" y="118862475"/>
+          <a:ext cx="0" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>604838</xdr:colOff>
+      <xdr:row>683</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4763</xdr:colOff>
+      <xdr:row>686</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="直線矢印コネクタ 32"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="28" idx="0"/>
+          <a:endCxn id="27" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2433638" y="117814725"/>
+          <a:ext cx="9525" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>595313</xdr:colOff>
+      <xdr:row>677</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>604838</xdr:colOff>
+      <xdr:row>679</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="直線矢印コネクタ 35"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="27" idx="0"/>
+          <a:endCxn id="26" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2424113" y="116766975"/>
+          <a:ext cx="9525" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>595313</xdr:colOff>
+      <xdr:row>671</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>604838</xdr:colOff>
+      <xdr:row>673</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="直線矢印コネクタ 38"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="26" idx="0"/>
+          <a:endCxn id="25" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2424113" y="115766849"/>
+          <a:ext cx="9525" cy="323851"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>700</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>704</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="正方形/長方形 46"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="120605550"/>
+          <a:ext cx="1285875" cy="676275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>base.html</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>705</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>709</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="正方形/長方形 47"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1819275" y="121605676"/>
+          <a:ext cx="1285875" cy="676275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>exs_main.html</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>712</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>716</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="正方形/長方形 48"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="122653426"/>
+          <a:ext cx="1285875" cy="676275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>zm.html</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>717</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>721</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="正方形/長方形 49"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="123577351"/>
+          <a:ext cx="1285875" cy="676275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>company.html</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>712</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>715</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="正方形/長方形 50"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3524250" y="122643901"/>
+          <a:ext cx="1285875" cy="676275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>top.html</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>23813</xdr:colOff>
+      <xdr:row>709</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>509588</xdr:colOff>
+      <xdr:row>712</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="直線矢印コネクタ 51"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="51" idx="0"/>
+          <a:endCxn id="48" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2462213" y="122281951"/>
+          <a:ext cx="1704975" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>33338</xdr:colOff>
+      <xdr:row>716</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>33338</xdr:colOff>
+      <xdr:row>717</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="直線矢印コネクタ 52"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="50" idx="0"/>
+          <a:endCxn id="49" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2471738" y="123329701"/>
+          <a:ext cx="0" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>23813</xdr:colOff>
+      <xdr:row>709</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>33338</xdr:colOff>
+      <xdr:row>712</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="直線矢印コネクタ 53"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="49" idx="0"/>
+          <a:endCxn id="48" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2462213" y="122281951"/>
+          <a:ext cx="9525" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>23813</xdr:colOff>
+      <xdr:row>704</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>33338</xdr:colOff>
+      <xdr:row>705</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="直線矢印コネクタ 54"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="48" idx="0"/>
+          <a:endCxn id="47" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2462213" y="121281825"/>
+          <a:ext cx="9525" cy="323851"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>722</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>476876</xdr:colOff>
+      <xdr:row>738</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="63" name="図 62"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="104775" y="124472699"/>
+          <a:ext cx="5248901" cy="2638425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>745</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>390142</xdr:colOff>
+      <xdr:row>750</xdr:row>
+      <xdr:rowOff>161799</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="図 63"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="371475" y="128311275"/>
+          <a:ext cx="3066667" cy="1009524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>757</xdr:row>
+      <xdr:rowOff>58971</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>769</xdr:row>
+      <xdr:rowOff>66322</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="66" name="図 65"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="171450" y="130418121"/>
+          <a:ext cx="5133975" cy="2064751"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -915,10 +3649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D144"/>
+  <dimension ref="A2:F779"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="A146" sqref="A146"/>
+    <sheetView tabSelected="1" topLeftCell="A767" workbookViewId="0">
+      <selection activeCell="B781" sqref="B781"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1250,12 +3984,502 @@
     </row>
     <row r="142" spans="1:1" ht="14.25">
       <c r="A142" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="168" spans="3:3">
+      <c r="C168" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="189" spans="4:4">
+      <c r="D189" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="C213" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" ht="17.25">
+      <c r="A225" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1">
+      <c r="A230" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1">
+      <c r="A252" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1">
+      <c r="A253" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1">
+      <c r="A271" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1">
+      <c r="A272" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1">
+      <c r="A273" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1">
+      <c r="A274" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" ht="15">
+      <c r="A275" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" ht="15">
+      <c r="A276" s="11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" ht="15">
+      <c r="A277" s="11"/>
+    </row>
+    <row r="293" spans="1:1">
+      <c r="A293" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1">
+      <c r="A297" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1">
+      <c r="A321" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1">
+      <c r="A322" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1">
+      <c r="A323" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1">
+      <c r="A324" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1">
+      <c r="A325" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1">
+      <c r="A363" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1">
+      <c r="A364" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1">
+      <c r="A366" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1">
+      <c r="A367" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1">
+      <c r="A368" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6">
+      <c r="A369" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6">
+      <c r="A370" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6">
+      <c r="A371" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6">
+      <c r="A372" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6">
+      <c r="A373" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6">
+      <c r="A374" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6">
+      <c r="A375" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6">
+      <c r="A376" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6">
+      <c r="A377" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6">
+      <c r="A378" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" ht="15">
+      <c r="A379" s="9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" ht="15">
+      <c r="A381" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" ht="15">
+      <c r="A382" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B382" s="8"/>
+      <c r="C382" s="8"/>
+      <c r="D382" s="8"/>
+      <c r="E382" s="8"/>
+      <c r="F382" s="8"/>
+    </row>
+    <row r="383" spans="1:6" ht="15">
+      <c r="A383" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" ht="15">
+      <c r="A384" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" ht="15">
+      <c r="A385" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" ht="15">
+      <c r="A386" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1">
+      <c r="A393" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1">
+      <c r="A433" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1">
+      <c r="A434" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1">
+      <c r="A435" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" ht="15">
+      <c r="A438" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" ht="15">
+      <c r="A439" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" ht="15">
+      <c r="A440" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" ht="15">
+      <c r="A441" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1">
+      <c r="A443" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1">
+      <c r="A444" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1">
+      <c r="A457" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1">
+      <c r="A458" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1">
+      <c r="A487" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1">
+      <c r="A488" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1">
+      <c r="A520" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1">
+      <c r="A521" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1">
+      <c r="A522" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1">
+      <c r="A525" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1">
+      <c r="A550" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1" ht="15">
+      <c r="A551" s="12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1">
+      <c r="A596" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="597" spans="1:1" ht="15">
+      <c r="A597" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="598" spans="1:1" ht="15">
+      <c r="A598" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="599" spans="1:1" ht="15">
+      <c r="A599" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="600" spans="1:1" ht="15">
+      <c r="A600" s="11"/>
+    </row>
+    <row r="601" spans="1:1" ht="15">
+      <c r="A601" s="11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="602" spans="1:1">
+      <c r="A602" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="603" spans="1:1">
+      <c r="A603" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="619" spans="1:1">
+      <c r="A619" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="655" spans="1:1">
+      <c r="A655" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="656" spans="1:1">
+      <c r="A656" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2">
+      <c r="A657" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2">
+      <c r="A658" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2">
+      <c r="B667" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="699" spans="2:2">
+      <c r="B699" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2">
+      <c r="A741" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2">
+      <c r="A742" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2">
+      <c r="A743" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2">
+      <c r="A744" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B744" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="746" spans="1:2">
+      <c r="A746" s="3"/>
+    </row>
+    <row r="753" spans="1:2">
+      <c r="A753" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="754" spans="1:2">
+      <c r="A754" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="755" spans="1:2">
+      <c r="A755" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B755" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="756" spans="1:2">
+      <c r="A756" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="779" spans="2:2">
+      <c r="B779" s="1" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/web-django_document.xlsx
+++ b/web-django_document.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="231">
   <si>
     <t>Kiến trúc hệ thống Django</t>
   </si>
@@ -695,9 +695,6 @@
     <t>Khi click vào một Button bất kì, django sẽ chuyển tiếp đến trang TOP</t>
   </si>
   <si>
-    <t>https://prac-toitsu-unification.ad.zenjukyo.gr.jp/</t>
-  </si>
-  <si>
     <t>'zm.page.top.urls'</t>
   </si>
   <si>
@@ -755,14 +752,259 @@
     <t>overwrite các khối block body_header</t>
   </si>
   <si>
-    <t>Chu trình source code</t>
+    <t>・{%block body_header%}{%endblock%}：Bao gồm code của phần header</t>
+  </si>
+  <si>
+    <t>・{% block body_block %}：Phần body chính của file html, các block còn lại sẽ nằm trong block body_block</t>
+  </si>
+  <si>
+    <t>・{% block main_body_block %}: Hiển thị nội dung chính của chương trình</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Ví dụ:  </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ttps://prac-toitsu-unification.ad.zenjukyo.gr.jp/</t>
+    </r>
+  </si>
+  <si>
+    <t>Chu trình code</t>
+  </si>
+  <si>
+    <t>1. Đầu tiên code sẽ chạy vào class TopView theo lời gọi hàm ở file urls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Vì TopView được thừa kế từ lớp BaseHtmlView nên django sẽ xác định yêu cầu được gủi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">lên thuộc phương thức nào. Ở đây là phương thức GET nên django sẽ gọi </t>
+  </si>
+  <si>
+    <t>đến phương thức get() trong class BaseHtmlView</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chương trình sẽ chạy lần lượt đến các phương thức được gọi đến trong </t>
+  </si>
+  <si>
+    <t>phương thức get()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khi gọi đến các phương thức trong phương thức get() django sẽ xác định </t>
+  </si>
+  <si>
+    <t xml:space="preserve">xem ở lớp TopView có thuộc tính đó không. Nếu có thì nó sẽ gọi đến phương </t>
+  </si>
+  <si>
+    <t>thức ở class TopView còn nếu không thì nó sẽ gọi đến phương thức ở class</t>
+  </si>
+  <si>
+    <t>BaseHtmlview</t>
+  </si>
+  <si>
+    <t>Các tham số trong phương thức get()</t>
+  </si>
+  <si>
+    <t>・request: Bao gồm các dữ liệu mà client gửi lên server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">・self: thể hiện đây là thực thể (instance) của object </t>
+  </si>
+  <si>
+    <t>Thông thường các class con sẽ overwrite lại các phương thức của class BaseHtmlview</t>
+  </si>
+  <si>
+    <t>Thông thường sẽ overwrite lại phương thức doPageHtml()</t>
+  </si>
+  <si>
+    <t>・*args, **kwargs: Tập các tham số có thể được truyền vào phương thức</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Danh sách các chức năng của hệ thống được khai báo tại phương thức </t>
+  </si>
+  <si>
+    <t>doPageHtml()</t>
+  </si>
+  <si>
+    <t>Các chức năng hệ thống</t>
+  </si>
+  <si>
+    <t>Tên các chức năng hệ thống được khai báo trong file django.po</t>
+  </si>
+  <si>
+    <t>(\web-django\src\webapp\zm\locale\ja\LC_MESSAGES\django.po)</t>
+  </si>
+  <si>
+    <t>Ví dụ: getEXSMessage('C99_003')</t>
+  </si>
+  <si>
+    <t>và được lấy ra thông qua phương thức getEXSMessage()</t>
+  </si>
+  <si>
+    <t>django.po</t>
+  </si>
+  <si>
+    <t>Tất cả đưuọc khai báo và lưu vào biến config</t>
+  </si>
+  <si>
+    <t>biến "config" thuộ kiểu dictionari đưucọ lưu trữ dưới dạng key-value</t>
+  </si>
+  <si>
+    <t>Cuối cùng biến config sẽ được truyền vào template để render ra html gửi</t>
+  </si>
+  <si>
+    <t>lại cho client thông qua hàm get()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trong file template top.html sẽ có vòng lặp duyệt các phần tử </t>
+  </si>
+  <si>
+    <t>"menu_lists" để render ra các href</t>
+  </si>
+  <si>
+    <t>\web-django\src\webapp\zm\page\top\index.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           \web-django\src\webapp\zm\templates\top\top.html</t>
+  </si>
+  <si>
+    <t>Kết quả</t>
+  </si>
+  <si>
+    <t>Chức năng: 請求管理TOP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">・Khi click vào 請求管理TOP (button) </t>
+  </si>
+  <si>
+    <t>Thì django sẽ chuyển đến link "/menu/U01ME000/"</t>
+  </si>
+  <si>
+    <t>View: zm/top/page/menu/menu_view.py</t>
+  </si>
+  <si>
+    <t>Template: menu-sub.html</t>
+  </si>
+  <si>
+    <t>XML: zm/top/menu/xml/menu.xml</t>
+  </si>
+  <si>
+    <t>url: re_path(r'^menu/', include('zm.page.menu.urls')),</t>
+  </si>
+  <si>
+    <t>\web-django\src\webapp\zm\urls.py</t>
+  </si>
+  <si>
+    <t>\web-django\src\webapp\zm\page\menu\urls.py</t>
+  </si>
+  <si>
+    <t>\web-django\src\webapp\zm\page\menu\menu_view.py</t>
+  </si>
+  <si>
+    <t>\web-django\src\webapp\zm\page\menu\xml\menu.xml</t>
+  </si>
+  <si>
+    <t>class MenuView được thừa kế từ class AbstractPage</t>
+  </si>
+  <si>
+    <t>class ZmPageHtmlView đưuọc thừa kế từ class BaseHtmlView</t>
+  </si>
+  <si>
+    <t>\web-django\src\webapp\zm\views.py</t>
+  </si>
+  <si>
+    <t>\web-django\src\webapp\zm\page\abstract_page.py</t>
+  </si>
+  <si>
+    <t>Chu trình thực hiện</t>
+  </si>
+  <si>
+    <t>django sẽ gọi đến file zm.page.menu.urls từ file \zm\urls.py</t>
+  </si>
+  <si>
+    <t>Sau đó từ file \zm\page\menu\urls.py gọi đến phương thức MenuView.as_view()</t>
+  </si>
+  <si>
+    <t>Các sub menu được khai báo trong 1 file xml. Cụ thể đó là file</t>
+  </si>
+  <si>
+    <t>django sẽ đọc file xml và sẽ render ra số button tương ứng</t>
+  </si>
+  <si>
+    <t>ở đây chức năng 請求管理TOP có 2 submenu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. khi nhận request từ client django sẽ phân tích request thông qua url </t>
+  </si>
+  <si>
+    <t>Vì vậy ta có thể thêm bớt số submenu từ file menu.xml</t>
+  </si>
+  <si>
+    <t>sau đó sẽ gọi đến file urls.py. Từ file zm/urls.py gọi đến file \zm\page\menu\urls.py</t>
+  </si>
+  <si>
+    <t>2. Từ file urls.py gọi đến phương thức MenuView.as_view())</t>
+  </si>
+  <si>
+    <t>3. django sẽ gọi đến phương thức get() của class BaseHtmlView</t>
+  </si>
+  <si>
+    <t>4. django sẽ gọi đến phương thức doPageHtml(self) của class MenuView</t>
+  </si>
+  <si>
+    <t>(class MenuView thừa kế từ class BaseHtmlView và class MenuView</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> đã overwrite phương thức doPageHtml(self) )</t>
+  </si>
+  <si>
+    <t>Tất cả các dữ liệu mà server trả về sẽ được lưu trong biến "config"</t>
+  </si>
+  <si>
+    <t>return render(request, self.getTemplate(), self.config)</t>
+  </si>
+  <si>
+    <t>biến config sẽ được truyền vào file template (menu/menu-sub.html)</t>
+  </si>
+  <si>
+    <t>rồi gửi lại cho client</t>
+  </si>
+  <si>
+    <t>5. Sau cùng sẽ được gửi về client thông qua phương thức render()</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -876,6 +1118,29 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -897,7 +1162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -918,7 +1183,12 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -3375,6 +3645,861 @@
         <a:xfrm>
           <a:off x="171450" y="130418121"/>
           <a:ext cx="5133975" cy="2064751"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>783</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>532844</xdr:colOff>
+      <xdr:row>795</xdr:row>
+      <xdr:rowOff>114044</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="図 44"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="352425" y="134940675"/>
+          <a:ext cx="4447619" cy="2047619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>800</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>516120</xdr:colOff>
+      <xdr:row>825</xdr:row>
+      <xdr:rowOff>142292</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="133350" y="137769600"/>
+          <a:ext cx="5259570" cy="4390442"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>840</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>199467</xdr:colOff>
+      <xdr:row>845</xdr:row>
+      <xdr:rowOff>57052</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="図 29"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="144722850"/>
+          <a:ext cx="4466667" cy="780952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>849</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>523200</xdr:colOff>
+      <xdr:row>881</xdr:row>
+      <xdr:rowOff>75525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="図 31"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="146294475"/>
+          <a:ext cx="5400000" cy="5400000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>133351</xdr:colOff>
+      <xdr:row>889</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>281613</xdr:colOff>
+      <xdr:row>902</xdr:row>
+      <xdr:rowOff>75575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="図 33"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="133351" y="153152475"/>
+          <a:ext cx="5025062" cy="2142500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>910</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>370819</xdr:colOff>
+      <xdr:row>943</xdr:row>
+      <xdr:rowOff>123108</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="図 34"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="156638625"/>
+          <a:ext cx="5247619" cy="5733333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>947</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>599481</xdr:colOff>
+      <xdr:row>966</xdr:row>
+      <xdr:rowOff>66269</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="図 36"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="114300" y="163010850"/>
+          <a:ext cx="4752381" cy="3247619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>970</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>560134</xdr:colOff>
+      <xdr:row>991</xdr:row>
+      <xdr:rowOff>37621</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="図 37"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="66675" y="166982775"/>
+          <a:ext cx="5370259" cy="3533296"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>1002</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>570825</xdr:colOff>
+      <xdr:row>1012</xdr:row>
+      <xdr:rowOff>28367</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="図 39"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="47625" y="172440600"/>
+          <a:ext cx="5400000" cy="1666667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>1014</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>475993</xdr:colOff>
+      <xdr:row>1028</xdr:row>
+      <xdr:rowOff>151926</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="図 40"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="85725" y="174583726"/>
+          <a:ext cx="5267068" cy="2390300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>1033</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>523711</xdr:colOff>
+      <xdr:row>1047</xdr:row>
+      <xdr:rowOff>113598</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="図 41"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28576" y="177717450"/>
+          <a:ext cx="5371935" cy="2475798"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>1060</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>566568</xdr:colOff>
+      <xdr:row>1074</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="図 42"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28576" y="182356125"/>
+          <a:ext cx="5414792" cy="2495550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>1063</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>1065</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="テキスト ボックス 43"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="304800" y="182927625"/>
+          <a:ext cx="1638300" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1078</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>531422</xdr:colOff>
+      <xdr:row>1097</xdr:row>
+      <xdr:rowOff>75779</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="図 45"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="185451750"/>
+          <a:ext cx="5408222" cy="3323804"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>1119</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>388630</xdr:colOff>
+      <xdr:row>1133</xdr:row>
+      <xdr:rowOff>85306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="図 55"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="171450" y="191595374"/>
+          <a:ext cx="5093980" cy="2390357"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>1136</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>447131</xdr:colOff>
+      <xdr:row>1151</xdr:row>
+      <xdr:rowOff>133012</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="図 56"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="361950" y="194414775"/>
+          <a:ext cx="4352381" cy="2704762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>1154</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>1172</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="図 57"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="197634226"/>
+          <a:ext cx="5419725" cy="2962274"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>1195</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>342339</xdr:colOff>
+      <xdr:row>1204</xdr:row>
+      <xdr:rowOff>123625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="図 59"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="123825" y="209226150"/>
+          <a:ext cx="4485714" cy="1600000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>1177</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>294904</xdr:colOff>
+      <xdr:row>1191</xdr:row>
+      <xdr:rowOff>75901</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="図 60"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="981075" y="206159100"/>
+          <a:ext cx="2971429" cy="2390476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>1208</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>275589</xdr:colOff>
+      <xdr:row>1222</xdr:row>
+      <xdr:rowOff>123518</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="図 61"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="66675" y="211112100"/>
+          <a:ext cx="5085714" cy="2457143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>1224</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>495464</xdr:colOff>
+      <xdr:row>1247</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="67" name="図 66"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19050" y="210607275"/>
+          <a:ext cx="5353214" cy="3924300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>1252</xdr:row>
+      <xdr:rowOff>132641</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>1261</xdr:row>
+      <xdr:rowOff>113887</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="図 64"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="295275" y="215464316"/>
+          <a:ext cx="4972050" cy="1524296"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3649,10 +4774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F779"/>
+  <dimension ref="A2:F1279"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A767" workbookViewId="0">
-      <selection activeCell="B781" sqref="B781"/>
+    <sheetView tabSelected="1" topLeftCell="A1247" workbookViewId="0">
+      <selection activeCell="D1272" sqref="D1272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4351,8 +5476,8 @@
       </c>
     </row>
     <row r="551" spans="1:1" ht="15">
-      <c r="A551" s="12" t="s">
-        <v>140</v>
+      <c r="A551" s="13" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="596" spans="1:1">
@@ -4380,67 +5505,67 @@
     </row>
     <row r="601" spans="1:1" ht="15">
       <c r="A601" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="602" spans="1:1">
       <c r="A602" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="603" spans="1:1">
       <c r="A603" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="619" spans="1:1">
       <c r="A619" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="655" spans="1:1">
       <c r="A655" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="656" spans="1:1">
       <c r="A656" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="657" spans="1:2">
       <c r="A657" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="658" spans="1:2">
       <c r="A658" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="667" spans="1:2">
       <c r="B667" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="699" spans="2:2">
       <c r="B699" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="741" spans="1:2">
       <c r="A741" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="742" spans="1:2">
       <c r="A742" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="743" spans="1:2">
       <c r="A743" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="744" spans="1:2">
@@ -4448,7 +5573,7 @@
         <v>127</v>
       </c>
       <c r="B744" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="746" spans="1:2">
@@ -4456,30 +5581,403 @@
     </row>
     <row r="753" spans="1:2">
       <c r="A753" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="754" spans="1:2">
       <c r="A754" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="755" spans="1:2">
       <c r="A755" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B755" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="B755" s="1" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="756" spans="1:2">
       <c r="A756" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="778" spans="1:2">
+      <c r="A778" s="12" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="779" spans="1:2">
+      <c r="A779" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="779" spans="2:2">
-      <c r="B779" s="1" t="s">
-        <v>160</v>
+    <row r="780" spans="1:2">
+      <c r="A780" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="782" spans="1:2">
+      <c r="B782" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="783" spans="1:2">
+      <c r="A783" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="797" spans="1:1">
+      <c r="A797" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="798" spans="1:1">
+      <c r="A798" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="799" spans="1:1">
+      <c r="A799" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="828" spans="1:1">
+      <c r="A828" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="829" spans="1:1">
+      <c r="A829" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="830" spans="1:1">
+      <c r="A830" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="831" spans="1:1">
+      <c r="A831" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="832" spans="1:1">
+      <c r="A832" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="833" spans="1:2">
+      <c r="A833" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="834" spans="1:2">
+      <c r="A834" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="835" spans="1:2">
+      <c r="A835" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="836" spans="1:2">
+      <c r="A836" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="837" spans="1:2">
+      <c r="A837" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="838" spans="1:2">
+      <c r="B838" s="14"/>
+    </row>
+    <row r="839" spans="1:2">
+      <c r="A839" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="840" spans="1:2">
+      <c r="A840" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="848" spans="1:2">
+      <c r="A848" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="849" spans="1:1">
+      <c r="A849" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="904" spans="1:3">
+      <c r="C904" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="906" spans="1:3">
+      <c r="A906" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="907" spans="1:3">
+      <c r="A907" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="908" spans="1:3">
+      <c r="A908" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="909" spans="1:3">
+      <c r="A909" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="945" spans="1:4">
+      <c r="D945" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="947" spans="1:4">
+      <c r="A947" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="968" spans="1:1">
+      <c r="A968" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="969" spans="1:1">
+      <c r="A969" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="970" spans="1:1">
+      <c r="A970" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="994" spans="1:1">
+      <c r="A994" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="995" spans="1:1">
+      <c r="A995" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="1014" spans="2:2">
+      <c r="B1014" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:1">
+      <c r="A1030" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:1">
+      <c r="A1032" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:1" ht="17.25">
+      <c r="A1058" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:1">
+      <c r="A1059" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:1">
+      <c r="A1077" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:1">
+      <c r="A1099" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:1" ht="15">
+      <c r="A1100" s="11" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:1" ht="15">
+      <c r="A1101" s="11" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:1" ht="15">
+      <c r="A1102" s="11" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:1">
+      <c r="A1114" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:1">
+      <c r="A1115" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="1135" spans="2:2">
+      <c r="B1135" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="1154" spans="2:2">
+      <c r="B1154" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:2">
+      <c r="B1173" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:2">
+      <c r="B1175" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:2">
+      <c r="A1177" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:2">
+      <c r="B1193" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:2">
+      <c r="A1195" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:2">
+      <c r="B1206" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:2">
+      <c r="A1208" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="1224" spans="2:2">
+      <c r="B1224" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:2">
+      <c r="B1249" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:2">
+      <c r="A1250" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:2">
+      <c r="A1251" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:2">
+      <c r="A1252" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:2">
+      <c r="A1264" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:1" ht="17.25">
+      <c r="A1265" s="15" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:1">
+      <c r="A1267" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:1">
+      <c r="A1268" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:1">
+      <c r="A1269" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:1">
+      <c r="A1270" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:1">
+      <c r="A1271" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:1">
+      <c r="A1272" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:1">
+      <c r="A1273" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:1">
+      <c r="A1274" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:1">
+      <c r="A1275" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:1">
+      <c r="A1276" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:1" ht="15">
+      <c r="A1277" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:1">
+      <c r="A1278" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:1">
+      <c r="A1279" s="1" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>

--- a/web-django_document.xlsx
+++ b/web-django_document.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\900016\Desktop\Django\django_training\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoang.minh.nguyen\Desktop\Django_Training\django_training\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C2E553-C7A2-46A6-9B7E-67526AB806BE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="242">
   <si>
     <t>Kiến trúc hệ thống Django</t>
   </si>
@@ -765,7 +766,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -776,7 +777,7 @@
         <u/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -787,7 +788,7 @@
         <u/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -967,9 +968,6 @@
     <t>Vì vậy ta có thể thêm bớt số submenu từ file menu.xml</t>
   </si>
   <si>
-    <t>sau đó sẽ gọi đến file urls.py. Từ file zm/urls.py gọi đến file \zm\page\menu\urls.py</t>
-  </si>
-  <si>
     <t>2. Từ file urls.py gọi đến phương thức MenuView.as_view())</t>
   </si>
   <si>
@@ -998,19 +996,652 @@
   </si>
   <si>
     <t>5. Sau cùng sẽ được gửi về client thông qua phương thức render()</t>
+  </si>
+  <si>
+    <r>
+      <t>sau đó s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>ẽ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>ọ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>i đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>ế</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>n file exs_main/urls.py r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ồ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>i đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ế</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">n zm/urls.py. </t>
+    </r>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>Từ file zm/urls.py gọi đến file \zm\page\menu\urls.py</t>
+  </si>
+  <si>
+    <r>
+      <t>ph</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="1"/>
+        <charset val="238"/>
+      </rPr>
+      <t>ươ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ng th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ứ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>c doPageHtml() s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ẽ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ọ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>c file menu.xml r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ồ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>i tìm submenu t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="1"/>
+        <charset val="238"/>
+      </rPr>
+      <t>ươ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">ng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ứ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ng sau đó gán vào bi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ế</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>config["menu_lists"]</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <r>
+      <t>* Các ch</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ứ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>c năng còn l</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ạ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>i đ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ề</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>u đ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="1"/>
+        <charset val="238"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ợ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>c th</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ự</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>c hi</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>n t</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="1"/>
+        <charset val="238"/>
+      </rPr>
+      <t>ươ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ng t</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ự</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <r>
+      <t>khi click vào m</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>ộ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>t ch</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>ứ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>c năng thì django s</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>ẽ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> làm đúng theo trình t</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>ự</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> trên.</t>
+    </r>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Menu: 業務メニュー </t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <r>
+      <t>Ch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ứ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>c năng 請求管理TOP/請求管理（柔整）TOP/レセプトCSV取り込み（柔整）/柔整（健康保険）</t>
+    </r>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>柔整（健康保険）</t>
+  </si>
+  <si>
+    <t>View: zm/top/page/csv_process/csv_process_view.py (class MainView(CsvHelper)</t>
+  </si>
+  <si>
+    <t>Template: zm/templates/csv_process/csv.html</t>
+  </si>
+  <si>
+    <t>XML: zm/top/page/csv_process/xml/import/config.xml</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1097,7 +1728,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1113,7 +1744,7 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1128,7 +1759,7 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1140,6 +1771,65 @@
       <name val="ＭＳ 明朝"/>
       <family val="1"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="1"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="1"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1162,36 +1852,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1223,7 +1916,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1261,7 +1960,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1299,7 +2004,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1337,7 +2048,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1375,7 +2092,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5"/>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1413,7 +2136,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="図 6"/>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1451,7 +2180,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="図 7"/>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1489,7 +2224,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="図 8"/>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1527,7 +2268,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="図 9"/>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1565,7 +2312,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="図 11"/>
+        <xdr:cNvPr id="12" name="図 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1603,7 +2356,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="図 12"/>
+        <xdr:cNvPr id="13" name="図 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1647,7 +2406,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="図 13"/>
+        <xdr:cNvPr id="14" name="図 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1691,7 +2456,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="図 14"/>
+        <xdr:cNvPr id="15" name="図 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1729,7 +2500,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="図 15"/>
+        <xdr:cNvPr id="16" name="図 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1767,7 +2544,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="図 16"/>
+        <xdr:cNvPr id="17" name="図 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1805,7 +2588,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="図 17"/>
+        <xdr:cNvPr id="18" name="図 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1843,7 +2632,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="図 18"/>
+        <xdr:cNvPr id="19" name="図 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1881,7 +2676,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="テキスト ボックス 19"/>
+        <xdr:cNvPr id="20" name="テキスト ボックス 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1938,7 +2739,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="図 20"/>
+        <xdr:cNvPr id="21" name="図 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1976,7 +2783,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="図 21"/>
+        <xdr:cNvPr id="22" name="図 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2014,7 +2827,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="図 22"/>
+        <xdr:cNvPr id="23" name="図 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2052,7 +2871,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="図 23"/>
+        <xdr:cNvPr id="24" name="図 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2090,7 +2915,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="正方形/長方形 24"/>
+        <xdr:cNvPr id="25" name="正方形/長方形 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2203,7 +3034,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="正方形/長方形 25"/>
+        <xdr:cNvPr id="26" name="正方形/長方形 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2316,7 +3153,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="正方形/長方形 26"/>
+        <xdr:cNvPr id="27" name="正方形/長方形 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2413,7 +3256,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="正方形/長方形 27"/>
+        <xdr:cNvPr id="28" name="正方形/長方形 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2525,7 +3374,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="正方形/長方形 28"/>
+        <xdr:cNvPr id="29" name="正方形/長方形 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2637,7 +3492,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="31" name="直線矢印コネクタ 30"/>
+        <xdr:cNvPr id="31" name="直線矢印コネクタ 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="29" idx="0"/>
           <a:endCxn id="28" idx="2"/>
@@ -2687,7 +3548,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="33" name="直線矢印コネクタ 32"/>
+        <xdr:cNvPr id="33" name="直線矢印コネクタ 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="28" idx="0"/>
           <a:endCxn id="27" idx="2"/>
@@ -2737,7 +3604,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="36" name="直線矢印コネクタ 35"/>
+        <xdr:cNvPr id="36" name="直線矢印コネクタ 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="27" idx="0"/>
           <a:endCxn id="26" idx="2"/>
@@ -2787,7 +3660,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="39" name="直線矢印コネクタ 38"/>
+        <xdr:cNvPr id="39" name="直線矢印コネクタ 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="26" idx="0"/>
           <a:endCxn id="25" idx="2"/>
@@ -2837,7 +3716,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="正方形/長方形 46"/>
+        <xdr:cNvPr id="47" name="正方形/長方形 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2950,7 +3835,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="正方形/長方形 47"/>
+        <xdr:cNvPr id="48" name="正方形/長方形 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3063,7 +3954,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="正方形/長方形 48"/>
+        <xdr:cNvPr id="49" name="正方形/長方形 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3160,7 +4057,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="正方形/長方形 49"/>
+        <xdr:cNvPr id="50" name="正方形/長方形 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3257,7 +4160,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="正方形/長方形 50"/>
+        <xdr:cNvPr id="51" name="正方形/長方形 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3354,7 +4263,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="52" name="直線矢印コネクタ 51"/>
+        <xdr:cNvPr id="52" name="直線矢印コネクタ 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="51" idx="0"/>
           <a:endCxn id="48" idx="2"/>
@@ -3404,7 +4319,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="53" name="直線矢印コネクタ 52"/>
+        <xdr:cNvPr id="53" name="直線矢印コネクタ 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="50" idx="0"/>
           <a:endCxn id="49" idx="2"/>
@@ -3454,7 +4375,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="54" name="直線矢印コネクタ 53"/>
+        <xdr:cNvPr id="54" name="直線矢印コネクタ 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="49" idx="0"/>
           <a:endCxn id="48" idx="2"/>
@@ -3504,7 +4431,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="55" name="直線矢印コネクタ 54"/>
+        <xdr:cNvPr id="55" name="直線矢印コネクタ 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="48" idx="0"/>
           <a:endCxn id="47" idx="2"/>
@@ -3554,7 +4487,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="63" name="図 62"/>
+        <xdr:cNvPr id="63" name="図 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3592,7 +4531,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="64" name="図 63"/>
+        <xdr:cNvPr id="64" name="図 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000040000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3630,7 +4575,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="66" name="図 65"/>
+        <xdr:cNvPr id="66" name="図 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3668,7 +4619,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="45" name="図 44"/>
+        <xdr:cNvPr id="45" name="図 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3706,7 +4663,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="図 10"/>
+        <xdr:cNvPr id="11" name="図 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3744,7 +4707,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="図 29"/>
+        <xdr:cNvPr id="30" name="図 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3782,7 +4751,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="図 31"/>
+        <xdr:cNvPr id="32" name="図 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3820,7 +4795,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="図 33"/>
+        <xdr:cNvPr id="34" name="図 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3858,7 +4839,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="図 34"/>
+        <xdr:cNvPr id="35" name="図 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3896,7 +4883,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="図 36"/>
+        <xdr:cNvPr id="37" name="図 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3934,7 +4927,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="図 37"/>
+        <xdr:cNvPr id="38" name="図 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3972,7 +4971,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="40" name="図 39"/>
+        <xdr:cNvPr id="40" name="図 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4010,7 +5015,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="41" name="図 40"/>
+        <xdr:cNvPr id="41" name="図 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4036,19 +5047,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>28576</xdr:colOff>
-      <xdr:row>1033</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>97156</xdr:colOff>
+      <xdr:row>1039</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>523711</xdr:colOff>
-      <xdr:row>1047</xdr:row>
-      <xdr:rowOff>113598</xdr:rowOff>
+      <xdr:colOff>592291</xdr:colOff>
+      <xdr:row>1053</xdr:row>
+      <xdr:rowOff>159318</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="42" name="図 41"/>
+        <xdr:cNvPr id="42" name="図 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4061,8 +5078,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="28576" y="177717450"/>
-          <a:ext cx="5371935" cy="2475798"/>
+          <a:off x="97156" y="175427640"/>
+          <a:ext cx="6042495" cy="2422458"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4086,7 +5103,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="43" name="図 42"/>
+        <xdr:cNvPr id="43" name="図 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4124,7 +5147,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="テキスト ボックス 43"/>
+        <xdr:cNvPr id="44" name="テキスト ボックス 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4181,7 +5210,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="46" name="図 45"/>
+        <xdr:cNvPr id="46" name="図 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4207,19 +5242,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>1119</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:colOff>179070</xdr:colOff>
+      <xdr:row>1110</xdr:row>
+      <xdr:rowOff>3809</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>388630</xdr:colOff>
-      <xdr:row>1133</xdr:row>
-      <xdr:rowOff>85306</xdr:rowOff>
+      <xdr:colOff>396250</xdr:colOff>
+      <xdr:row>1123</xdr:row>
+      <xdr:rowOff>161506</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="56" name="図 55"/>
+        <xdr:cNvPr id="56" name="図 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4232,8 +5273,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="171450" y="191595374"/>
-          <a:ext cx="5093980" cy="2390357"/>
+          <a:off x="179070" y="187471049"/>
+          <a:ext cx="5764540" cy="2337017"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4246,18 +5287,24 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>1136</xdr:row>
+      <xdr:row>1127</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>447131</xdr:colOff>
-      <xdr:row>1151</xdr:row>
+      <xdr:row>1142</xdr:row>
       <xdr:rowOff>133012</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="57" name="図 56"/>
+        <xdr:cNvPr id="57" name="図 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4284,18 +5331,24 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>1154</xdr:row>
+      <xdr:row>1145</xdr:row>
       <xdr:rowOff>133351</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>1172</xdr:row>
+      <xdr:row>1163</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="58" name="図 57"/>
+        <xdr:cNvPr id="58" name="図 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4322,18 +5375,24 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>1195</xdr:row>
+      <xdr:row>1186</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>342339</xdr:colOff>
-      <xdr:row>1204</xdr:row>
+      <xdr:row>1195</xdr:row>
       <xdr:rowOff>123625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="60" name="図 59"/>
+        <xdr:cNvPr id="60" name="図 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4360,18 +5419,24 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>1177</xdr:row>
+      <xdr:row>1168</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>294904</xdr:colOff>
-      <xdr:row>1191</xdr:row>
+      <xdr:row>1182</xdr:row>
       <xdr:rowOff>75901</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="61" name="図 60"/>
+        <xdr:cNvPr id="61" name="図 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4398,18 +5463,24 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>1208</xdr:row>
+      <xdr:row>1199</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>275589</xdr:colOff>
-      <xdr:row>1222</xdr:row>
+      <xdr:row>1213</xdr:row>
       <xdr:rowOff>123518</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="62" name="図 61"/>
+        <xdr:cNvPr id="62" name="図 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4436,18 +5507,24 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>1224</xdr:row>
+      <xdr:row>1215</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>495464</xdr:colOff>
-      <xdr:row>1247</xdr:row>
+      <xdr:row>1238</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="67" name="図 66"/>
+        <xdr:cNvPr id="67" name="図 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000043000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4473,19 +5550,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>1252</xdr:row>
-      <xdr:rowOff>132641</xdr:rowOff>
+      <xdr:colOff>241935</xdr:colOff>
+      <xdr:row>1244</xdr:row>
+      <xdr:rowOff>147881</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>1261</xdr:row>
-      <xdr:rowOff>113887</xdr:rowOff>
+      <xdr:colOff>337185</xdr:colOff>
+      <xdr:row>1253</xdr:row>
+      <xdr:rowOff>129127</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="65" name="図 64"/>
+        <xdr:cNvPr id="65" name="図 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000041000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4498,8 +5581,138 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="295275" y="215464316"/>
-          <a:ext cx="4972050" cy="1524296"/>
+          <a:off x="241935" y="211420001"/>
+          <a:ext cx="5642610" cy="1490006"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>1282</xdr:row>
+      <xdr:rowOff>112742</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>641610</xdr:colOff>
+      <xdr:row>1298</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="Picture 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B5BF25A-2A3C-437C-9F56-C72BFD6E14DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="83820" y="216680762"/>
+          <a:ext cx="6105150" cy="2683797"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>1299</xdr:row>
+      <xdr:rowOff>2014</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>625426</xdr:colOff>
+      <xdr:row>1310</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="69" name="Picture 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{161CB155-B1DE-4E25-875C-7BF2B568DB69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="99060" y="219419914"/>
+          <a:ext cx="6073726" cy="1979186"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>1330</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>195580</xdr:colOff>
+      <xdr:row>1349</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="70" name="図 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4F159F5-EA51-4230-8097-12ED956748AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="342900" y="224683320"/>
+          <a:ext cx="5400040" cy="3185160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4773,584 +5986,584 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F1279"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:F1315"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1247" workbookViewId="0">
-      <selection activeCell="D1272" sqref="D1272"/>
+    <sheetView tabSelected="1" topLeftCell="A1297" workbookViewId="0">
+      <selection activeCell="D1319" sqref="D1319"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="8" width="9.140625" style="1"/>
-    <col min="9" max="9" width="9.28515625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="8" width="9.09765625" style="1"/>
+    <col min="9" max="9" width="9.296875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.09765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="14.25">
+    <row r="81" spans="1:1" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="14.25">
+    <row r="82" spans="1:1" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="14.25">
+    <row r="83" spans="1:1" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="14.25">
+    <row r="84" spans="1:1" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="14.25">
+    <row r="85" spans="1:1" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="14.25">
+    <row r="88" spans="1:1" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A88" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="14.25">
+    <row r="89" spans="1:1" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="14.25">
+    <row r="90" spans="1:1" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A90" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="14.25">
+    <row r="92" spans="1:1" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A92" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="112" spans="1:1">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="113" spans="1:1" ht="14.25">
+    <row r="113" spans="1:1" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A113" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="114" spans="1:1" ht="14.25">
+    <row r="114" spans="1:1" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A114" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="116" spans="1:1">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="118" spans="1:1">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:1">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="121" spans="1:1">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="122" spans="1:1">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="123" spans="1:1">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="124" spans="1:1">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="125" spans="1:1">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="126" spans="1:1">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="127" spans="1:1">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="128" spans="1:1">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="129" spans="1:1">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="131" spans="1:1">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="132" spans="1:1">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="134" spans="1:1">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="136" spans="1:1" ht="14.25">
+    <row r="136" spans="1:1" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A136" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="137" spans="1:1" ht="14.25">
+    <row r="137" spans="1:1" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A137" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="138" spans="1:1" ht="14.25">
+    <row r="138" spans="1:1" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A138" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="139" spans="1:1">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="141" spans="1:1">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="142" spans="1:1" ht="14.25">
+    <row r="142" spans="1:1" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A142" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="143" spans="1:1">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="144" spans="1:1">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="168" spans="3:3">
+    <row r="168" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C168" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="189" spans="4:4">
+    <row r="189" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D189" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C213" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="225" spans="1:1" ht="17.25">
+    <row r="225" spans="1:1" ht="16.2" x14ac:dyDescent="0.2">
       <c r="A225" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="227" spans="1:1">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="228" spans="1:1">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="230" spans="1:1">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="252" spans="1:1">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="253" spans="1:1">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="271" spans="1:1">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="272" spans="1:1">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="273" spans="1:1">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="274" spans="1:1">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="275" spans="1:1" ht="15">
+    <row r="275" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A275" s="11" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="276" spans="1:1" ht="15">
+    <row r="276" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A276" s="11" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="277" spans="1:1" ht="15">
+    <row r="277" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A277" s="11"/>
     </row>
-    <row r="293" spans="1:1">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="297" spans="1:1">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="321" spans="1:1">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="322" spans="1:1">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="323" spans="1:1">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="324" spans="1:1">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="325" spans="1:1">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A325" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="363" spans="1:1">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A363" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="364" spans="1:1">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A364" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="366" spans="1:1">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="367" spans="1:1">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A367" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="368" spans="1:1">
+    <row r="368" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A368" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="369" spans="1:6">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A369" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="370" spans="1:6">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A370" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="371" spans="1:6">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A371" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="372" spans="1:6">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A372" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="373" spans="1:6">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="374" spans="1:6">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A374" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="375" spans="1:6">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A375" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="376" spans="1:6">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A376" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="377" spans="1:6">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A377" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="378" spans="1:6">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A378" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="379" spans="1:6" ht="15">
+    <row r="379" spans="1:6" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A379" s="9" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="381" spans="1:6" ht="15">
+    <row r="381" spans="1:6" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A381" s="7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="382" spans="1:6" ht="15">
+    <row r="382" spans="1:6" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A382" s="10" t="s">
         <v>92</v>
       </c>
@@ -5360,215 +6573,215 @@
       <c r="E382" s="8"/>
       <c r="F382" s="8"/>
     </row>
-    <row r="383" spans="1:6" ht="15">
+    <row r="383" spans="1:6" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A383" s="7" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="384" spans="1:6" ht="15">
+    <row r="384" spans="1:6" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A384" s="7" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="385" spans="1:1" ht="15">
+    <row r="385" spans="1:1" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A385" s="7" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="386" spans="1:1" ht="15">
+    <row r="386" spans="1:1" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A386" s="7" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="393" spans="1:1">
+    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A393" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="433" spans="1:1">
+    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A433" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="434" spans="1:1">
+    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A434" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="435" spans="1:1">
+    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A435" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="438" spans="1:1" ht="15">
+    <row r="438" spans="1:1" ht="18" x14ac:dyDescent="0.45">
       <c r="A438" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="439" spans="1:1" ht="15">
+    <row r="439" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A439" s="11" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="440" spans="1:1" ht="15">
+    <row r="440" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A440" s="11" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="441" spans="1:1" ht="15">
+    <row r="441" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A441" s="11" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="443" spans="1:1">
+    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A443" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="444" spans="1:1">
+    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A444" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="457" spans="1:1">
+    <row r="457" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A457" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="458" spans="1:1">
+    <row r="458" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A458" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="487" spans="1:1">
+    <row r="487" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A487" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="488" spans="1:1">
+    <row r="488" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A488" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="520" spans="1:1">
+    <row r="520" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A520" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="521" spans="1:1">
+    <row r="521" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A521" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="522" spans="1:1">
+    <row r="522" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A522" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="525" spans="1:1">
+    <row r="525" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A525" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="550" spans="1:1">
+    <row r="550" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A550" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="551" spans="1:1" ht="15">
+    <row r="551" spans="1:1" ht="18" x14ac:dyDescent="0.45">
       <c r="A551" s="13" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="596" spans="1:1">
+    <row r="596" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A596" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="597" spans="1:1" ht="15">
+    <row r="597" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A597" s="11" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="598" spans="1:1" ht="15">
+    <row r="598" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A598" s="11" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="599" spans="1:1" ht="15">
+    <row r="599" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A599" s="11" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="600" spans="1:1" ht="15">
+    <row r="600" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A600" s="11"/>
     </row>
-    <row r="601" spans="1:1" ht="15">
+    <row r="601" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A601" s="11" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="602" spans="1:1">
+    <row r="602" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A602" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="603" spans="1:1">
+    <row r="603" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A603" s="4" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="619" spans="1:1">
+    <row r="619" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A619" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="655" spans="1:1">
+    <row r="655" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A655" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="656" spans="1:1">
+    <row r="656" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A656" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="657" spans="1:2">
+    <row r="657" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A657" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="658" spans="1:2">
+    <row r="658" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A658" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="667" spans="1:2">
+    <row r="667" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B667" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="699" spans="2:2">
+    <row r="699" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B699" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="741" spans="1:2">
+    <row r="741" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A741" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="742" spans="1:2">
+    <row r="742" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A742" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="743" spans="1:2">
+    <row r="743" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A743" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="744" spans="1:2">
+    <row r="744" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A744" s="1" t="s">
         <v>127</v>
       </c>
@@ -5576,20 +6789,20 @@
         <v>153</v>
       </c>
     </row>
-    <row r="746" spans="1:2">
+    <row r="746" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A746" s="3"/>
     </row>
-    <row r="753" spans="1:2">
+    <row r="753" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A753" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="754" spans="1:2">
+    <row r="754" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A754" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="755" spans="1:2">
+    <row r="755" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A755" s="1" t="s">
         <v>156</v>
       </c>
@@ -5597,404 +6810,461 @@
         <v>157</v>
       </c>
     </row>
-    <row r="756" spans="1:2">
+    <row r="756" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A756" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="778" spans="1:2">
+    <row r="778" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A778" s="12" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="779" spans="1:2">
+    <row r="779" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A779" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="780" spans="1:2">
+    <row r="780" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A780" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="782" spans="1:2">
+    <row r="782" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B782" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="783" spans="1:2">
+    <row r="783" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A783" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="797" spans="1:1">
+    <row r="797" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A797" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="798" spans="1:1">
+    <row r="798" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A798" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="799" spans="1:1">
+    <row r="799" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A799" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="828" spans="1:1">
+    <row r="828" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A828" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="829" spans="1:1">
+    <row r="829" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A829" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="830" spans="1:1">
+    <row r="830" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A830" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="831" spans="1:1">
+    <row r="831" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A831" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="832" spans="1:1">
+    <row r="832" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A832" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="833" spans="1:2">
+    <row r="833" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A833" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="834" spans="1:2">
+    <row r="834" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A834" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="835" spans="1:2">
+    <row r="835" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A835" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="836" spans="1:2">
+    <row r="836" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A836" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="837" spans="1:2">
+    <row r="837" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A837" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="838" spans="1:2">
+    <row r="838" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B838" s="14"/>
     </row>
-    <row r="839" spans="1:2">
+    <row r="839" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A839" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="840" spans="1:2">
+    <row r="840" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A840" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="848" spans="1:2">
+    <row r="848" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A848" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="849" spans="1:1">
+    <row r="849" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A849" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="904" spans="1:3">
+    <row r="904" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C904" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="906" spans="1:3">
+    <row r="906" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A906" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="907" spans="1:3">
+    <row r="907" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A907" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="908" spans="1:3">
+    <row r="908" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A908" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="909" spans="1:3">
+    <row r="909" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A909" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="945" spans="1:4">
+    <row r="945" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D945" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="947" spans="1:4">
+    <row r="947" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A947" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="968" spans="1:1">
+    <row r="968" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A968" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="969" spans="1:1">
+    <row r="969" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A969" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="970" spans="1:1">
+    <row r="970" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A970" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="994" spans="1:1">
+    <row r="994" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A994" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="995" spans="1:1">
+    <row r="995" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A995" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="1014" spans="2:2">
+    <row r="1014" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1014" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="1030" spans="1:1">
+    <row r="1030" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1030" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="1032" spans="1:1">
+    <row r="1032" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1032" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="1058" spans="1:1" ht="17.25">
+    <row r="1057" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1057" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:1" ht="16.2" x14ac:dyDescent="0.2">
       <c r="A1058" s="6" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="1059" spans="1:1">
+    <row r="1059" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1059" s="4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="1077" spans="1:1">
+    <row r="1077" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1077" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="1099" spans="1:1">
-      <c r="A1099" s="1" t="s">
+    <row r="1101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1101" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1102" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1105" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="1100" spans="1:1" ht="15">
-      <c r="A1100" s="11" t="s">
+    <row r="1106" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1106" s="11" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="1101" spans="1:1" ht="15">
-      <c r="A1101" s="11" t="s">
+    <row r="1107" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1107" s="11" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="1102" spans="1:1" ht="15">
-      <c r="A1102" s="11" t="s">
+    <row r="1108" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1108" s="11" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="1114" spans="1:1">
-      <c r="A1114" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="1115" spans="1:1">
-      <c r="A1115" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="1135" spans="2:2">
-      <c r="B1135" s="1" t="s">
+    <row r="1126" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1126" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="1154" spans="2:2">
-      <c r="B1154" s="1" t="s">
+    <row r="1145" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1145" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="1173" spans="1:2">
-      <c r="B1173" s="1" t="s">
+    <row r="1164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1164" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="1175" spans="1:2">
-      <c r="B1175" s="1" t="s">
+    <row r="1166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1166" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="1177" spans="1:2">
-      <c r="A1177" s="1" t="s">
+    <row r="1168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1168" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="1193" spans="1:2">
-      <c r="B1193" s="1" t="s">
+    <row r="1184" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1184" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="1195" spans="1:2">
-      <c r="A1195" s="1" t="s">
+    <row r="1186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1186" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="1206" spans="1:2">
-      <c r="B1206" s="1" t="s">
+    <row r="1197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1197" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="1208" spans="1:2">
-      <c r="A1208" s="1" t="s">
+    <row r="1199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1199" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="1224" spans="2:2">
-      <c r="B1224" s="1" t="s">
+    <row r="1215" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1215" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="1249" spans="1:2">
-      <c r="B1249" s="1" t="s">
+    <row r="1240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1240" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="1250" spans="1:2">
-      <c r="A1250" s="1" t="s">
+    <row r="1242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1242" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="1251" spans="1:2">
-      <c r="A1251" s="1" t="s">
+    <row r="1243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1243" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="1252" spans="1:2">
-      <c r="A1252" s="1" t="s">
+    <row r="1244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1244" s="1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="1264" spans="1:2">
+    <row r="1256" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1256" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:1" ht="16.2" x14ac:dyDescent="0.2">
+      <c r="A1257" s="15" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1259" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1260" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A1261" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1262" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1263" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1264" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="1265" spans="1:1" ht="17.25">
-      <c r="A1265" s="15" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="1267" spans="1:1">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1265" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1266" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1267" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="1268" spans="1:1">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:1" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A1268" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="1269" spans="1:1">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:1" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A1269" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="1270" spans="1:1">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1270" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="1271" spans="1:1">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1271" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="1272" spans="1:1">
-      <c r="A1272" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="1273" spans="1:1">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:1" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A1272" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1273" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="1274" spans="1:1">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1274" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="1275" spans="1:1">
-      <c r="A1275" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="1276" spans="1:1">
-      <c r="A1276" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="1277" spans="1:1" ht="15">
-      <c r="A1277" s="7" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="1278" spans="1:1">
-      <c r="A1278" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="1279" spans="1:1">
-      <c r="A1279" s="1" t="s">
-        <v>229</v>
+    <row r="1277" spans="1:1" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A1277" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A1278" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A1281" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:1" ht="16.2" x14ac:dyDescent="0.2">
+      <c r="A1282" s="6" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:1" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A1313" s="16" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:1" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A1314" s="16" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:1" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A1315" s="16" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="19"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData/>
+  <phoneticPr fontId="19"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/web-django_document.xlsx
+++ b/web-django_document.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoang.minh.nguyen\Desktop\Django_Training\django_training\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hoang\Django\django_training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C2E553-C7A2-46A6-9B7E-67526AB806BE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="256">
   <si>
     <t>Kiến trúc hệ thống Django</t>
   </si>
@@ -1623,12 +1622,189 @@
   <si>
     <t>XML: zm/top/page/csv_process/xml/import/config.xml</t>
   </si>
+  <si>
+    <t>của file csv_process.js</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <r>
+      <t>Khi click button [アップロード] ở client sẽ gọi đến ph</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Century"/>
+        <family val="1"/>
+      </rPr>
+      <t>ươ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ng thức submitUpload()</t>
+    </r>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Hàm submitupload() sẽ gửi một request lên server với url: </t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>url:/zm/csv/U01JM001/csv_import</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <r>
+      <t>Tại server sẽ căn cứ vào url mà request gửi lên và gọi đến ph</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Century"/>
+        <family val="1"/>
+      </rPr>
+      <t>ươ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ng thức t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Century"/>
+        <family val="1"/>
+      </rPr>
+      <t>ươ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ng ứng</t>
+    </r>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <r>
+      <t>\ZEN_DevEnvNew\web-django\src\webapp\zm\page\csv_process\</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>urls.py</t>
+    </r>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <r>
+      <t>ZEN_DevEnvNew\web-django\src\webapp\zm\</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>urls.py</t>
+    </r>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  \ZEN_DevEnvNew\web-django\src\webapp\zm\static\js\csv_process\</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>csv_process.js</t>
+    </r>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   \ZEN_DevEnvNew\web-django\src\webapp\zm\page\csv_process\csv_process_view.py</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>Hàm xử lý event post của class MainView</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>return getattr(self, actions[self.view_action])(json)</t>
+  </si>
+  <si>
+    <t>Hàm getattr(self, tên hàm): gọi đến hàm có trong class nếu tham số [tên hàm] trùng với tên hàm của class đó</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>CACHE_TTL = getattr(settings, 'CACHE_TTL', DEFAULT_TIMEOUT) hàm lấy dữ liệu từ 1 file python</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(json)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: là tham số</t>
+    </r>
+    <phoneticPr fontId="19"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1831,6 +2007,37 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Century"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1852,7 +2059,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1882,9 +2089,10 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5682,15 +5890,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>1330</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>1316</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>195580</xdr:colOff>
-      <xdr:row>1349</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:colOff>176530</xdr:colOff>
+      <xdr:row>1335</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5711,8 +5919,331 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="342900" y="224683320"/>
-          <a:ext cx="5400040" cy="3185160"/>
+          <a:off x="323850" y="227373180"/>
+          <a:ext cx="5415280" cy="3257550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>1322</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>1323</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="テキスト ボックス 67"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1685925" y="228399975"/>
+          <a:ext cx="581025" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>1345</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>675671</xdr:colOff>
+      <xdr:row>1355</xdr:row>
+      <xdr:rowOff>75982</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="71" name="図 70"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="714375" y="232390950"/>
+          <a:ext cx="4828571" cy="1742857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>1340</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>1344</xdr:row>
+      <xdr:rowOff>85638</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="72" name="図 71"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="231562275"/>
+          <a:ext cx="6191250" cy="695238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>1360</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>75564</xdr:colOff>
+      <xdr:row>1396</xdr:row>
+      <xdr:rowOff>161146</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="73" name="図 72"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="552450" y="235086525"/>
+          <a:ext cx="5085714" cy="6228571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>1411</xdr:row>
+      <xdr:rowOff>108600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>1428</xdr:row>
+      <xdr:rowOff>47211</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="74" name="図 73"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="47625" y="243843825"/>
+          <a:ext cx="6134100" cy="2853261"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>1431</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>1439</xdr:row>
+      <xdr:rowOff>171270</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="75" name="図 74"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="247269000"/>
+          <a:ext cx="6162675" cy="1438095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>1443</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>599318</xdr:colOff>
+      <xdr:row>1471</xdr:row>
+      <xdr:rowOff>37505</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="76" name="図 75"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="104775" y="249297825"/>
+          <a:ext cx="6057143" cy="4761905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>1475</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>600076</xdr:colOff>
+      <xdr:row>1484</xdr:row>
+      <xdr:rowOff>152196</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="77" name="図 76"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="66676" y="254774700"/>
+          <a:ext cx="6096000" cy="1628571"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5986,584 +6517,584 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:F1315"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F1486"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1297" workbookViewId="0">
-      <selection activeCell="D1319" sqref="D1319"/>
+    <sheetView tabSelected="1" topLeftCell="A1464" workbookViewId="0">
+      <selection activeCell="D1487" sqref="D1487"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="8" width="9.09765625" style="1"/>
-    <col min="9" max="9" width="9.296875" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.09765625" style="1"/>
+    <col min="1" max="8" width="9.125" style="1"/>
+    <col min="9" max="9" width="9.25" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A75" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A80" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A81" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A82" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A83" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A84" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A85" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A87" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A88" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A89" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A90" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A91" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A92" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A112" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="113" spans="1:1" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A113" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="114" spans="1:1" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A114" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A116" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A118" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A120" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A121" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A122" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A123" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A124" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A125" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A126" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A127" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A128" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A129" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A131" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A132" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A134" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="136" spans="1:1" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A136" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="137" spans="1:1" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A137" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="138" spans="1:1" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A138" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A139" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A141" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="142" spans="1:1" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A142" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A143" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A144" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="168" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C168" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="189" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D189" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C213" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A215" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A216" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A217" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A218" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A219" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A220" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="225" spans="1:1" ht="16.2" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A225" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A227" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A228" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A230" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A252" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A253" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A271" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A272" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A273" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A274" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="275" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A275" s="11" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="276" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A276" s="11" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="277" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A277" s="11"/>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A293" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A297" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A321" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A322" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A323" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A324" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A325" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A363" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A364" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A366" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A367" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A368" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A369" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A370" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A371" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A372" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A373" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A374" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A375" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A376" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A377" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A378" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="379" spans="1:6" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A379" s="9" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="381" spans="1:6" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A381" s="7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="382" spans="1:6" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A382" s="10" t="s">
         <v>92</v>
       </c>
@@ -6573,215 +7104,215 @@
       <c r="E382" s="8"/>
       <c r="F382" s="8"/>
     </row>
-    <row r="383" spans="1:6" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A383" s="7" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="384" spans="1:6" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A384" s="7" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="385" spans="1:1" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:1" ht="15" x14ac:dyDescent="0.15">
       <c r="A385" s="7" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="386" spans="1:1" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:1" ht="15" x14ac:dyDescent="0.15">
       <c r="A386" s="7" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A393" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A433" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A434" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A435" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="438" spans="1:1" ht="18" x14ac:dyDescent="0.45">
+    <row r="438" spans="1:1" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A438" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="439" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A439" s="11" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="440" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A440" s="11" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="441" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A441" s="11" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A443" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A444" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A457" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A458" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A487" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A488" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="520" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A520" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="521" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A521" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="522" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A522" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="525" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A525" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="550" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A550" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="551" spans="1:1" ht="18" x14ac:dyDescent="0.45">
+    <row r="551" spans="1:1" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A551" s="13" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="596" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A596" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="597" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A597" s="11" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="598" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A598" s="11" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="599" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A599" s="11" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="600" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A600" s="11"/>
     </row>
-    <row r="601" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A601" s="11" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="602" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A602" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="603" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A603" s="4" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="619" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A619" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="655" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A655" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="656" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A656" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="657" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A657" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="658" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A658" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="667" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B667" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="699" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="699" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B699" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="741" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A741" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="742" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A742" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="743" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A743" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="744" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A744" s="1" t="s">
         <v>127</v>
       </c>
@@ -6789,20 +7320,20 @@
         <v>153</v>
       </c>
     </row>
-    <row r="746" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A746" s="3"/>
     </row>
-    <row r="753" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A753" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="754" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A754" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="755" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A755" s="1" t="s">
         <v>156</v>
       </c>
@@ -6810,442 +7341,497 @@
         <v>157</v>
       </c>
     </row>
-    <row r="756" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A756" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="778" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A778" s="12" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="779" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A779" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="780" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A780" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="782" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B782" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="783" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A783" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="797" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A797" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="798" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A798" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="799" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A799" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="828" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A828" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="829" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A829" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="830" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A830" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="831" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A831" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="832" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A832" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="833" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A833" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="834" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A834" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="835" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A835" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="836" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A836" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="837" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A837" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="838" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B838" s="14"/>
     </row>
-    <row r="839" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A839" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="840" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A840" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="848" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A848" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="849" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A849" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="904" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C904" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="906" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A906" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="907" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A907" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="908" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A908" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="909" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A909" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="945" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D945" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="947" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A947" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="968" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A968" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="969" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A969" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="970" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A970" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="994" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A994" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="995" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="995" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A995" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="1014" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1014" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B1014" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="1030" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1030" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1030" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="1032" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1032" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1032" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="1057" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1057" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1057" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="1058" spans="1:1" ht="16.2" x14ac:dyDescent="0.2">
+    <row r="1058" spans="1:1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A1058" s="6" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="1059" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1059" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1059" s="4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="1077" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1077" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1077" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="1101" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1101" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1101" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="1102" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1102" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1102" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="1105" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1105" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1105" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="1106" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="1106" spans="1:1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1106" s="11" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="1107" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="1107" spans="1:1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1107" s="11" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="1108" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="1108" spans="1:1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1108" s="11" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="1126" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1126" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B1126" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="1145" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1145" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B1145" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="1164" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1164" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B1164" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="1166" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1166" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B1166" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="1168" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1168" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1168" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="1184" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1184" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B1184" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="1186" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1186" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1186" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="1197" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1197" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B1197" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="1199" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1199" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1199" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="1215" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1215" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B1215" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="1240" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1240" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B1240" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="1242" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1242" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1242" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="1243" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1243" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1243" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="1244" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1244" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1244" s="1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="1256" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1256" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1256" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="1257" spans="1:1" ht="16.2" x14ac:dyDescent="0.2">
+    <row r="1257" spans="1:1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A1257" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="1259" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1259" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1259" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="1260" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1260" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1260" s="1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="1261" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1261" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1261" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="1262" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1262" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1262" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="1263" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1263" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1263" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="1264" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1264" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1264" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="1265" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1265" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1265" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="1266" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1266" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1266" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="1267" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1267" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1267" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="1268" spans="1:1" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="1268" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1268" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="1269" spans="1:1" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="1269" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1269" s="1" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="1270" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1270" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1270" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="1271" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1271" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1271" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="1272" spans="1:1" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="1272" spans="1:1" ht="15" x14ac:dyDescent="0.15">
       <c r="A1272" s="7" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="1273" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1273" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1273" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="1274" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1274" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1274" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="1277" spans="1:1" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="1277" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1277" s="4" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="1278" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="1278" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1278" s="4" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="1281" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1281" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1281" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="1282" spans="1:1" ht="16.2" x14ac:dyDescent="0.2">
+    <row r="1282" spans="1:1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A1282" s="6" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="1313" spans="1:1" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="1313" spans="1:1" ht="15" x14ac:dyDescent="0.15">
       <c r="A1313" s="16" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="1314" spans="1:1" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="1314" spans="1:1" ht="15" x14ac:dyDescent="0.15">
       <c r="A1314" s="16" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="1315" spans="1:1" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="1315" spans="1:1" ht="15" x14ac:dyDescent="0.15">
       <c r="A1315" s="16" t="s">
         <v>241</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A1339" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1340" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1357" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1359" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:1" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A1360" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A1399" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="1430" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B1430" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="1442" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B1442" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1473" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1475" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1486" s="1" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -7257,13 +7843,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>255</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="19"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/web-django_document.xlsx
+++ b/web-django_document.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="279">
   <si>
     <t>Kiến trúc hệ thống Django</t>
   </si>
@@ -1799,12 +1799,277 @@
     </r>
     <phoneticPr fontId="19"/>
   </si>
+  <si>
+    <t>Quy trình xử lý file csv</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>・Xóa file csv</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>・Ghi dữ liệu vào database</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <r>
+      <t>ph</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Century"/>
+        <family val="1"/>
+      </rPr>
+      <t>ươ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">ng thức return getattr(self, actions[self.view_action])(json) sẽ gọi đến </t>
+    </r>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <r>
+      <t>・Đọc và l</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Century"/>
+        <family val="1"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>u nội dung file csv</t>
+    </r>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <r>
+      <t>ph</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Century"/>
+        <family val="1"/>
+      </rPr>
+      <t>ươ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ng thức csv_import() để thực hiện upload file csv, đọc file csv, xóa file csv, l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Century"/>
+        <family val="1"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>u file vào c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Century"/>
+        <family val="1"/>
+      </rPr>
+      <t>ơ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> sở dữ liệu</t>
+    </r>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>Chức năng 請求管理TOP/請求管理（柔整）TOP/レセプト入力（柔整/柔整（健康保険）レセプトチェック</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>View: zm/top/page/zum02/receipt_100/rr015.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiển thị menu từ menu.html. </t>
+  </si>
+  <si>
+    <r>
+      <t>Template: zm/top/page/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>zum02/receipt_100/receipt_100.html</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Template: receipt_100.html có sử dụng file init_screen.js  và autostreatment.js để tạo các thẻ </t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>&lt;input&gt; tại các thẻ &lt;div&gt; có class “date_picker”. Hàm này khởi chạy ở sự kiện onload trong file init_screen.js.</t>
+  </si>
+  <si>
+    <r>
+      <t>Thông qua request url của client  (https://127.0.0.1/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>zm/zum02/U01JP010</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>/) django sẽ gọi</t>
+    </r>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>・Upload file lên server (\ZEN_DevEnvNew\web-django\src\webapp\zm\static)</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>\ZEN_DevEnvNew\web-django\src\webapp\zm\page\zum02\urls.py</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>\ZEN_DevEnvNew\web-django\src\webapp\zm\urls.py</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>đến file zm.page.zum02.urls . Từ file zm.page.zum02.urls sẽ gọi đến file</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>\ZEN_DevEnvNew\web-django\src\webapp\zm\page\zum02\receipt_100\urls.py</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>"zm.page.zum02.receipt_100.urls" sau đó sẽ gọi đến class Mainview của file rr015_view.py</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <r>
+      <t>Ph</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Century"/>
+        <family val="1"/>
+      </rPr>
+      <t>ươ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ng thức doPageHtml() của class MainVew()</t>
+    </r>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   \ZEN_DevEnvNew\web-django\src\webapp\zm\page\zum02\receipt_100\rr015_view.py</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <r>
+      <t>Đây là ph</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Century"/>
+        <family val="1"/>
+      </rPr>
+      <t>ươ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">ng thức chính để lấy các dữ liệu cần thiết sau đó gán vào file template </t>
+    </r>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>\zm\templates\zum02\receipt_100\receipt_100.htmlđể hiển thị ra màn hình</t>
+    <phoneticPr fontId="19"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2038,6 +2303,29 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Century"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2059,7 +2347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2090,6 +2378,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -3349,13 +3643,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
+      <xdr:colOff>561975</xdr:colOff>
       <xdr:row>679</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>683</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
@@ -3372,8 +3666,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1790700" y="117138450"/>
-          <a:ext cx="1285875" cy="676275"/>
+          <a:off x="1952625" y="117757575"/>
+          <a:ext cx="1543050" cy="676275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3452,13 +3746,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
+      <xdr:colOff>561975</xdr:colOff>
       <xdr:row>686</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>689</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
@@ -3475,8 +3769,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1800225" y="118186200"/>
-          <a:ext cx="1285875" cy="676275"/>
+          <a:off x="1952625" y="118805325"/>
+          <a:ext cx="1543050" cy="676275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3570,13 +3864,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
+      <xdr:colOff>561975</xdr:colOff>
       <xdr:row>692</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>696</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
@@ -3593,8 +3887,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1800225" y="119262525"/>
-          <a:ext cx="1285875" cy="676275"/>
+          <a:off x="1952625" y="119881650"/>
+          <a:ext cx="1543050" cy="676275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3687,14 +3981,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>4763</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
       <xdr:row>689</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>4763</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
       <xdr:row>692</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
@@ -3714,7 +4008,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2443163" y="118862475"/>
+          <a:off x="2724150" y="119481600"/>
           <a:ext cx="0" cy="400050"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3744,13 +4038,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>604838</xdr:colOff>
+      <xdr:colOff>638175</xdr:colOff>
       <xdr:row>683</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>4763</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
       <xdr:row>686</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -3769,9 +4063,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="2433638" y="117814725"/>
-          <a:ext cx="9525" cy="371475"/>
+        <a:xfrm flipV="1">
+          <a:off x="2724150" y="118433850"/>
+          <a:ext cx="0" cy="371475"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3800,13 +4094,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>595313</xdr:colOff>
+      <xdr:colOff>638175</xdr:colOff>
       <xdr:row>677</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>604838</xdr:colOff>
+      <xdr:colOff>638175</xdr:colOff>
       <xdr:row>679</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -3825,9 +4119,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="2424113" y="116766975"/>
-          <a:ext cx="9525" cy="371475"/>
+        <a:xfrm flipV="1">
+          <a:off x="2724150" y="117386100"/>
+          <a:ext cx="0" cy="371475"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4031,13 +4325,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:colOff>647700</xdr:colOff>
       <xdr:row>705</xdr:row>
       <xdr:rowOff>161926</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>709</xdr:row>
       <xdr:rowOff>152401</xdr:rowOff>
     </xdr:to>
@@ -4054,8 +4348,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1819275" y="121605676"/>
-          <a:ext cx="1285875" cy="676275"/>
+          <a:off x="2038350" y="122224801"/>
+          <a:ext cx="1543050" cy="676275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4149,14 +4443,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
       <xdr:row>712</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>716</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
@@ -4173,8 +4467,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1828800" y="122653426"/>
-          <a:ext cx="1285875" cy="676275"/>
+          <a:off x="2076450" y="123272551"/>
+          <a:ext cx="1457325" cy="676275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4252,14 +4546,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
       <xdr:row>717</xdr:row>
       <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>721</xdr:row>
       <xdr:rowOff>66676</xdr:rowOff>
     </xdr:to>
@@ -4276,8 +4570,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1828800" y="123577351"/>
-          <a:ext cx="1285875" cy="676275"/>
+          <a:off x="2076450" y="124196476"/>
+          <a:ext cx="1457325" cy="676275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4459,7 +4753,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>23813</xdr:colOff>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>709</xdr:row>
       <xdr:rowOff>152401</xdr:rowOff>
     </xdr:from>
@@ -4485,8 +4779,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="2462213" y="122281951"/>
-          <a:ext cx="1704975" cy="361950"/>
+          <a:off x="2809875" y="122901076"/>
+          <a:ext cx="1871663" cy="361950"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4515,13 +4809,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>33338</xdr:colOff>
+      <xdr:colOff>23813</xdr:colOff>
       <xdr:row>716</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>33338</xdr:colOff>
+      <xdr:colOff>23813</xdr:colOff>
       <xdr:row>717</xdr:row>
       <xdr:rowOff>76201</xdr:rowOff>
     </xdr:to>
@@ -4541,7 +4835,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2471738" y="123329701"/>
+          <a:off x="2805113" y="123948826"/>
           <a:ext cx="0" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -4577,7 +4871,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>33338</xdr:colOff>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>712</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
@@ -4596,9 +4890,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="2462213" y="122281951"/>
-          <a:ext cx="9525" cy="371475"/>
+        <a:xfrm flipV="1">
+          <a:off x="2805113" y="122901076"/>
+          <a:ext cx="4762" cy="371475"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4627,7 +4921,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>23813</xdr:colOff>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>704</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
@@ -4653,8 +4947,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2462213" y="121281825"/>
-          <a:ext cx="9525" cy="323851"/>
+          <a:off x="2809875" y="121900950"/>
+          <a:ext cx="4763" cy="323851"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6179,15 +6473,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>1443</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>1442</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>599318</xdr:colOff>
-      <xdr:row>1471</xdr:row>
-      <xdr:rowOff>37505</xdr:rowOff>
+      <xdr:colOff>589793</xdr:colOff>
+      <xdr:row>1465</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6204,8 +6498,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="104775" y="249297825"/>
-          <a:ext cx="6057143" cy="4761905"/>
+          <a:off x="95250" y="249145426"/>
+          <a:ext cx="6057143" cy="3981450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6218,13 +6512,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>66676</xdr:colOff>
-      <xdr:row>1475</xdr:row>
+      <xdr:row>1470</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>600076</xdr:colOff>
-      <xdr:row>1484</xdr:row>
+      <xdr:row>1479</xdr:row>
       <xdr:rowOff>152196</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6244,6 +6538,481 @@
         <a:xfrm>
           <a:off x="66676" y="254774700"/>
           <a:ext cx="6096000" cy="1628571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>123826</xdr:colOff>
+      <xdr:row>1492</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>561752</xdr:colOff>
+      <xdr:row>1514</xdr:row>
+      <xdr:rowOff>75572</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="78" name="図 77"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="123826" y="257670299"/>
+          <a:ext cx="6000526" cy="3828423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>1476</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>1478</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="テキスト ボックス 78"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1447800" y="255022350"/>
+          <a:ext cx="3981450" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>82157</xdr:colOff>
+      <xdr:row>1522</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>588291</xdr:colOff>
+      <xdr:row>1539</xdr:row>
+      <xdr:rowOff>37054</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="80" name="図 79"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="82157" y="262937625"/>
+          <a:ext cx="6068734" cy="2808829"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>43972</xdr:colOff>
+      <xdr:row>1541</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>1555</xdr:row>
+      <xdr:rowOff>46879</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="81" name="図 80"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="43972" y="266118974"/>
+          <a:ext cx="6156803" cy="2380505"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>120436</xdr:colOff>
+      <xdr:row>1558</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>654955</xdr:colOff>
+      <xdr:row>1572</xdr:row>
+      <xdr:rowOff>65770</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="82" name="図 81"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="120436" y="269005049"/>
+          <a:ext cx="6097119" cy="2427971"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>1593</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>642253</xdr:colOff>
+      <xdr:row>1610</xdr:row>
+      <xdr:rowOff>113873</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="83" name="図 82"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId57"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="95250" y="275262974"/>
+          <a:ext cx="6109603" cy="2904699"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>87878</xdr:colOff>
+      <xdr:row>1581</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>584764</xdr:colOff>
+      <xdr:row>1592</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="84" name="図 83"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="87878" y="273043650"/>
+          <a:ext cx="6059486" cy="1971676"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1630</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>631347</xdr:colOff>
+      <xdr:row>1649</xdr:row>
+      <xdr:rowOff>132888</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="85" name="図 84"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId59"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="281501849"/>
+          <a:ext cx="6193947" cy="3371389"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>1652</xdr:row>
+      <xdr:rowOff>40412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>1662</xdr:row>
+      <xdr:rowOff>18830</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="86" name="図 85"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId60"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="142875" y="285295112"/>
+          <a:ext cx="6057900" cy="1692918"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>1664</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>132713</xdr:colOff>
+      <xdr:row>1682</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="87" name="図 86"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId61"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="600075" y="287321625"/>
+          <a:ext cx="5095238" cy="3105149"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1686</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>656448</xdr:colOff>
+      <xdr:row>1702</xdr:row>
+      <xdr:rowOff>85390</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="88" name="図 87"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId62"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="291245925"/>
+          <a:ext cx="6219048" cy="2676190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>1705</xdr:row>
+      <xdr:rowOff>128907</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>1726</xdr:row>
+      <xdr:rowOff>65923</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="89" name="図 88"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId63"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="294489507"/>
+          <a:ext cx="6067425" cy="3537466"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6518,10 +7287,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F1486"/>
+  <dimension ref="A2:F1733"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1464" workbookViewId="0">
-      <selection activeCell="D1487" sqref="D1487"/>
+    <sheetView tabSelected="1" topLeftCell="A1714" workbookViewId="0">
+      <selection activeCell="C1732" sqref="C1732"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7819,20 +8588,171 @@
         <v>247</v>
       </c>
     </row>
-    <row r="1473" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1473" s="1" t="s">
+    <row r="1468" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1468" s="1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="1475" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1475" s="1" t="s">
+    <row r="1470" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1470" s="1" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="1486" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1486" s="1" t="s">
+    <row r="1481" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1481" s="1" t="s">
         <v>250</v>
       </c>
+    </row>
+    <row r="1484" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1484" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B1484" s="3"/>
+      <c r="C1484" s="3"/>
+    </row>
+    <row r="1485" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1485" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B1485" s="3"/>
+      <c r="C1485" s="3"/>
+    </row>
+    <row r="1486" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A1486" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B1486" s="3"/>
+      <c r="C1486" s="3"/>
+    </row>
+    <row r="1487" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1487" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B1487" s="3"/>
+      <c r="C1487" s="3"/>
+    </row>
+    <row r="1488" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1488" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B1488" s="3"/>
+      <c r="C1488" s="3"/>
+    </row>
+    <row r="1490" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A1490" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A1491" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1521" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A1577" s="16" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A1578" s="19" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A1579" s="16" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A1580" s="18" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A1582" s="18"/>
+    </row>
+    <row r="1583" spans="1:1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A1583" s="18"/>
+    </row>
+    <row r="1584" spans="1:1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A1584" s="18"/>
+    </row>
+    <row r="1612" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B1612" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1614" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1615" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1616" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="1651" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B1651" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="1664" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B1664" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1683" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1683" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1686" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A1686" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="1704" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A1704" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="1705" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1705" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="1728" spans="1:1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A1728" s="18" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="1729" spans="1:1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A1729" s="18" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="1730" spans="1:1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A1730" s="18"/>
+    </row>
+    <row r="1731" spans="1:1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A1731" s="18"/>
+    </row>
+    <row r="1732" spans="1:1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A1732" s="18"/>
+    </row>
+    <row r="1733" spans="1:1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A1733" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="19"/>

--- a/web-django_document.xlsx
+++ b/web-django_document.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="307">
   <si>
     <t>Kiến trúc hệ thống Django</t>
   </si>
@@ -1931,137 +1931,412 @@
     <phoneticPr fontId="19"/>
   </si>
   <si>
-    <t>View: zm/top/page/zum02/receipt_100/rr015.py</t>
-  </si>
-  <si>
     <t xml:space="preserve">Hiển thị menu từ menu.html. </t>
   </si>
   <si>
-    <r>
-      <t>Template: zm/top/page/</t>
-    </r>
-    <r>
-      <rPr>
+    <t xml:space="preserve">Template: receipt_100.html có sử dụng file init_screen.js  và autostreatment.js để tạo các thẻ </t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>&lt;input&gt; tại các thẻ &lt;div&gt; có class “date_picker”. Hàm này khởi chạy ở sự kiện onload trong file init_screen.js.</t>
+  </si>
+  <si>
+    <r>
+      <t>Thông qua request url của client  (https://127.0.0.1/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>zm/zum02/U01JP010</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>/) django sẽ gọi</t>
+    </r>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>・Upload file lên server (\ZEN_DevEnvNew\web-django\src\webapp\zm\static)</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>\ZEN_DevEnvNew\web-django\src\webapp\zm\page\zum02\urls.py</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>\ZEN_DevEnvNew\web-django\src\webapp\zm\urls.py</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>đến file zm.page.zum02.urls . Từ file zm.page.zum02.urls sẽ gọi đến file</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>\ZEN_DevEnvNew\web-django\src\webapp\zm\page\zum02\receipt_100\urls.py</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>"zm.page.zum02.receipt_100.urls" sau đó sẽ gọi đến class Mainview của file rr015_view.py</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <r>
+      <t>Ph</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Century"/>
+        <family val="1"/>
+      </rPr>
+      <t>ươ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ng thức doPageHtml() của class MainVew()</t>
+    </r>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   \ZEN_DevEnvNew\web-django\src\webapp\zm\page\zum02\receipt_100\rr015_view.py</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <r>
+      <t>Đây là ph</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Century"/>
+        <family val="1"/>
+      </rPr>
+      <t>ươ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">ng thức chính để lấy các dữ liệu cần thiết sau đó gán vào file template </t>
+    </r>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>config[‘label’]: để in ra label trong file html</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   \ZEN_DevEnvNew\web-django\src\webapp\zm\page\zum02\receipt_100\rr015_view.py</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>config[column name_tcd] để tạo danh sách thả xuống màn hình</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>Get simple dict of tcd value and its name to fill into dropdown list in screen</t>
+  </si>
+  <si>
+    <t>\ZEN_DevEnvNew\web-django\src\webapp\zm\templates\zum02\receipt_100\receipt_100.html</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>Trong file templates receipt_100.html</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <r>
+      <t>danh sách đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Century"/>
+        <family val="1"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ợc lấy từ các file json đối với các cột có tên với từ kết thúc là</t>
+    </r>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>"_tcd"</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>\ZEN_DevEnvNew\web-django\src\files\type_code\</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>Khi click chức năng "保存"</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  \ZEN_DevEnvNew\web-django\src\webapp\zm\page\zum02\receipt_100\rr015_view.py</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <r>
+      <t>Django sẽ gọi đến ph</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Century"/>
+        <family val="1"/>
+      </rPr>
+      <t>ươ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ng thức doPostEvent() trong class MainView</t>
+    </r>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <r>
+      <t>Sau đó lần l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Century"/>
+        <family val="1"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ợt là 2 ph</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Century"/>
+        <family val="1"/>
+      </rPr>
+      <t>ươ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ng thức</t>
+    </r>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>\ZEN_DevEnvNew\web-django\src\webapp\zm\page\zum02\rr015_receipt_110\rr15_receipt_110_view.py</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>\ZEN_DevEnvNew\web-django\src\webapp\zm\templates\zum02\rr015_receipt_110\rr015_receipt_110_template.html</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <r>
+      <t>Quy trình thực hiện t</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Century"/>
+        <family val="1"/>
+      </rPr>
+      <t>ươ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ng tự nh</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Century"/>
+        <family val="1"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> chức năng 柔整（健康保険）レセプトチェック</t>
+    </r>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>柔整（生活保護）レセプトチェック</t>
+  </si>
+  <si>
+    <t>柔整（労災）レセプトチェック</t>
+  </si>
+  <si>
+    <t>\ZEN_DevEnvNew\web-django\src\webapp\zm\page\zum02\rr015_receipt_120\rr015_receipt_120_view.py</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>\ZEN_DevEnvNew\web-django\src\webapp\zm\templates\zum02\rr015_receipt_120\rr015_receipt_120_template.html</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>Chức năng 請求管理TOP/請求管理（柔整）TOP/レセプトチェック（柔整）</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>\ZEN_DevEnvNew\web-django\src\webapp\zm\page\zum02\receipt_check_logic\base_classes\view\base_view.py</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>View: zm/page/zum02/rr015_receipt_120\rr015_receipt_120_view.py</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <r>
+      <t>Template: zm/page/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
+      <t>zum02/rr015_receipt_110/rr015_receipt_110_template.html</t>
+    </r>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <r>
+      <t>Template: zm/page/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>zum02/rr015_receipt_120\rr015_receipt_120_template.html</t>
+    </r>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>View: zm/page/zum02/rr015_receipt_110\rr15_receipt_110_view.py</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>View: zm/page/zum02/receipt_100/rr015.py</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <r>
+      <t>Template: zm/page/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
       <t>zum02/receipt_100/receipt_100.html</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Template: receipt_100.html có sử dụng file init_screen.js  và autostreatment.js để tạo các thẻ </t>
     <phoneticPr fontId="19"/>
   </si>
   <si>
-    <t>&lt;input&gt; tại các thẻ &lt;div&gt; có class “date_picker”. Hàm này khởi chạy ở sự kiện onload trong file init_screen.js.</t>
-  </si>
-  <si>
-    <r>
-      <t>Thông qua request url của client  (https://127.0.0.1/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+    <t>\ZEN_DevEnvNew\web-django\src\webapp\zm\templates\zum02\receipt_check_logic\base_receipt_check_logic.html</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>View: zm/page/zum02/receipt_check_logic\base_classes\view\base_view.py</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <r>
+      <t>Template: zm/page/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
         <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>zm/zum02/U01JP010</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>/) django sẽ gọi</t>
-    </r>
-    <phoneticPr fontId="19"/>
-  </si>
-  <si>
-    <t>・Upload file lên server (\ZEN_DevEnvNew\web-django\src\webapp\zm\static)</t>
-    <phoneticPr fontId="19"/>
-  </si>
-  <si>
-    <t>\ZEN_DevEnvNew\web-django\src\webapp\zm\page\zum02\urls.py</t>
-    <phoneticPr fontId="19"/>
-  </si>
-  <si>
-    <t>\ZEN_DevEnvNew\web-django\src\webapp\zm\urls.py</t>
-    <phoneticPr fontId="19"/>
-  </si>
-  <si>
-    <t>đến file zm.page.zum02.urls . Từ file zm.page.zum02.urls sẽ gọi đến file</t>
-    <phoneticPr fontId="19"/>
-  </si>
-  <si>
-    <t>\ZEN_DevEnvNew\web-django\src\webapp\zm\page\zum02\receipt_100\urls.py</t>
-    <phoneticPr fontId="19"/>
-  </si>
-  <si>
-    <t>"zm.page.zum02.receipt_100.urls" sau đó sẽ gọi đến class Mainview của file rr015_view.py</t>
-    <phoneticPr fontId="19"/>
-  </si>
-  <si>
-    <r>
-      <t>Ph</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Century"/>
-        <family val="1"/>
-      </rPr>
-      <t>ươ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ng thức doPageHtml() của class MainVew()</t>
-    </r>
-    <phoneticPr fontId="19"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   \ZEN_DevEnvNew\web-django\src\webapp\zm\page\zum02\receipt_100\rr015_view.py</t>
-    <phoneticPr fontId="19"/>
-  </si>
-  <si>
-    <r>
-      <t>Đây là ph</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Century"/>
-        <family val="1"/>
-      </rPr>
-      <t>ươ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">ng thức chính để lấy các dữ liệu cần thiết sau đó gán vào file template </t>
-    </r>
-    <phoneticPr fontId="19"/>
-  </si>
-  <si>
-    <t>\zm\templates\zum02\receipt_100\receipt_100.htmlđể hiển thị ra màn hình</t>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>zum02/receipt_check_logic\base_receipt_check_logic.html</t>
+    </r>
     <phoneticPr fontId="19"/>
   </si>
 </sst>
@@ -2069,7 +2344,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2317,12 +2592,36 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="10.5"/>
+      <color rgb="FFFF0000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
@@ -2347,7 +2646,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2381,9 +2680,17 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -6987,13 +7294,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>1705</xdr:row>
+      <xdr:row>1707</xdr:row>
       <xdr:rowOff>128907</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>1726</xdr:row>
+      <xdr:row>1728</xdr:row>
       <xdr:rowOff>65923</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7013,6 +7320,880 @@
         <a:xfrm>
           <a:off x="38100" y="294489507"/>
           <a:ext cx="6067425" cy="3537466"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>1739</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>586611</xdr:colOff>
+      <xdr:row>1762</xdr:row>
+      <xdr:rowOff>94567</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="90" name="図 89"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="85725" y="300161325"/>
+          <a:ext cx="6063486" cy="3895042"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>1792</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>504202</xdr:colOff>
+      <xdr:row>1805</xdr:row>
+      <xdr:rowOff>123544</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="91" name="図 90"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId65"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="390525" y="309591075"/>
+          <a:ext cx="4980952" cy="2247619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>1808</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>526459</xdr:colOff>
+      <xdr:row>1824</xdr:row>
+      <xdr:rowOff>104227</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="92" name="図 91"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId66"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="285750" y="310743600"/>
+          <a:ext cx="5803309" cy="2780752"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>1826</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>27939</xdr:colOff>
+      <xdr:row>1842</xdr:row>
+      <xdr:rowOff>113963</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="93" name="図 92"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId67"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="504825" y="313924950"/>
+          <a:ext cx="5085714" cy="2695238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>1900</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>1921</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="94" name="図 93"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId68"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="190500" y="328498201"/>
+          <a:ext cx="5962650" cy="3476624"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>1923</xdr:row>
+      <xdr:rowOff>113289</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>657226</xdr:colOff>
+      <xdr:row>1930</xdr:row>
+      <xdr:rowOff>66481</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="95" name="図 94"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId69"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28576" y="320581914"/>
+          <a:ext cx="6191250" cy="1153342"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>1763</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>539238</xdr:colOff>
+      <xdr:row>1783</xdr:row>
+      <xdr:rowOff>46981</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="96" name="図 95"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId70"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="123825" y="304257074"/>
+          <a:ext cx="5978013" cy="3352157"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>1847</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>75670</xdr:colOff>
+      <xdr:row>1880</xdr:row>
+      <xdr:rowOff>75487</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="97" name="図 96"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId71"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="318954150"/>
+          <a:ext cx="4238095" cy="5704762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>1935</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>485774</xdr:colOff>
+      <xdr:row>1953</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="98" name="図 97"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId72"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="190499" y="334127476"/>
+          <a:ext cx="5857875" cy="3028950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>1955</xdr:row>
+      <xdr:rowOff>58467</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>573446</xdr:colOff>
+      <xdr:row>1964</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="99" name="図 98"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId73"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="123825" y="337681617"/>
+          <a:ext cx="6012221" cy="1494108"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>1969</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>551520</xdr:colOff>
+      <xdr:row>1986</xdr:row>
+      <xdr:rowOff>104317</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="100" name="図 99"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId74"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28575" y="339899625"/>
+          <a:ext cx="6085545" cy="2999917"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>1993</xdr:row>
+      <xdr:rowOff>17688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>514351</xdr:colOff>
+      <xdr:row>2006</xdr:row>
+      <xdr:rowOff>123081</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="101" name="図 100"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId75"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="104775" y="344013063"/>
+          <a:ext cx="5972176" cy="2334243"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>2008</xdr:row>
+      <xdr:rowOff>70961</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>2023</xdr:row>
+      <xdr:rowOff>132344</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="102" name="図 101"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId76"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="142875" y="346638086"/>
+          <a:ext cx="5924550" cy="2633133"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>321417</xdr:colOff>
+      <xdr:row>2062</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>399011</xdr:colOff>
+      <xdr:row>2079</xdr:row>
+      <xdr:rowOff>170909</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="104" name="図 103"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId77"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="321417" y="356063550"/>
+          <a:ext cx="5640194" cy="2933159"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>2028</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>628006</xdr:colOff>
+      <xdr:row>2047</xdr:row>
+      <xdr:rowOff>18654</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="105" name="図 104"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId78"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="342900" y="350186625"/>
+          <a:ext cx="5152381" cy="3171429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>2090</xdr:row>
+      <xdr:rowOff>80656</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>2102</xdr:row>
+      <xdr:rowOff>75492</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="106" name="図 105"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId79"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="76201" y="360820981"/>
+          <a:ext cx="6105524" cy="2052236"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>2116</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>570850</xdr:colOff>
+      <xdr:row>2130</xdr:row>
+      <xdr:rowOff>18754</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="107" name="図 106"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId80"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="238125" y="365245650"/>
+          <a:ext cx="5200000" cy="2371429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>2133</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>591816</xdr:colOff>
+      <xdr:row>2150</xdr:row>
+      <xdr:rowOff>75655</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="108" name="図 107"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId81"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="114300" y="368226974"/>
+          <a:ext cx="6040116" cy="2961731"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>219074</xdr:colOff>
+      <xdr:row>2174</xdr:row>
+      <xdr:rowOff>8391</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>635911</xdr:colOff>
+      <xdr:row>2189</xdr:row>
+      <xdr:rowOff>84723</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="109" name="図 108"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId82"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="219074" y="375245766"/>
+          <a:ext cx="5979437" cy="2648082"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>2191</xdr:row>
+      <xdr:rowOff>75851</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>2209</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="110" name="図 109"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId83"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="142875" y="378227876"/>
+          <a:ext cx="6029325" cy="3105499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>2211</xdr:row>
+      <xdr:rowOff>113122</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>2222</xdr:row>
+      <xdr:rowOff>113832</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="111" name="図 110"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId84"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="85725" y="381694147"/>
+          <a:ext cx="5991225" cy="1886660"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>2231</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>589887</xdr:colOff>
+      <xdr:row>2238</xdr:row>
+      <xdr:rowOff>104613</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="112" name="図 111"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId85"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="152400" y="385105275"/>
+          <a:ext cx="5304762" cy="1295238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>2241</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>2259</xdr:row>
+      <xdr:rowOff>171339</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="113" name="図 112"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId86"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="386810251"/>
+          <a:ext cx="6067425" cy="3257438"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7287,10 +8468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F1733"/>
+  <dimension ref="A2:F2262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1714" workbookViewId="0">
-      <selection activeCell="C1732" sqref="C1732"/>
+    <sheetView tabSelected="1" topLeftCell="A2231" workbookViewId="0">
+      <selection activeCell="E2266" sqref="E2266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8612,7 +9793,7 @@
     </row>
     <row r="1485" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1485" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B1485" s="3"/>
       <c r="C1485" s="3"/>
@@ -8649,28 +9830,28 @@
       </c>
     </row>
     <row r="1521" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1521" s="1" t="s">
+      <c r="A1521" s="3" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="1577" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A1577" s="16" t="s">
+      <c r="A1577" s="21" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A1578" s="21" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A1579" s="21" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A1580" s="22" t="s">
         <v>263</v>
-      </c>
-    </row>
-    <row r="1578" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A1578" s="19" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="1579" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A1579" s="16" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="1580" spans="1:1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A1580" s="18" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="1582" spans="1:1" ht="15.75" x14ac:dyDescent="0.15">
@@ -8684,75 +9865,287 @@
     </row>
     <row r="1612" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B1612" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="1614" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1614" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="1615" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1615" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="1616" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1616" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="1651" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B1651" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="1664" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B1664" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="1683" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1683" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="1686" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1686" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1704" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1704" s="8" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="1705" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1705" s="8"/>
+    </row>
+    <row r="1706" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A1706" s="1" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="1704" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1704" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="1705" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1705" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="1728" spans="1:1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A1728" s="18" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="1729" spans="1:1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A1729" s="18" t="s">
-        <v>267</v>
+    <row r="1707" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A1707" s="1" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="1730" spans="1:1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A1730" s="18"/>
+      <c r="A1730" s="18" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="1731" spans="1:1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A1731" s="18"/>
+      <c r="A1731" s="18" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="1732" spans="1:1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A1732" s="18"/>
     </row>
     <row r="1733" spans="1:1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A1733" s="18"/>
+      <c r="A1733" s="19"/>
+    </row>
+    <row r="1734" spans="1:1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A1734" s="18"/>
+    </row>
+    <row r="1735" spans="1:1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A1735" s="18"/>
+    </row>
+    <row r="1792" spans="1:1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A1792" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1807" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1807" s="8" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="1826" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1826" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="1844" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1844" s="8" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="1846" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A1846" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="1847" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1847" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1883" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B1883" s="8" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1886" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1886" s="20"/>
+    </row>
+    <row r="1900" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1900" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="1923" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1923" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="1932" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1932" s="8" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="1934" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1934" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="1955" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A1955" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="1966" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1966" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="B1966" s="8"/>
+    </row>
+    <row r="1968" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A1968" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="1988" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1988" s="8" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="1992" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1992" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="1993" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A1993" s="23" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="2025" spans="1:1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A2025" s="21" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="2026" spans="1:1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A2026" s="21" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="2027" spans="1:1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A2027" s="21" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2028" spans="1:1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A2028" s="22" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="2049" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2049" s="8" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2082" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2082" s="8" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2085" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A2085" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="2088" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2088" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="2089" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A2089" s="23" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="2105" spans="1:1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A2105" s="21" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="2106" spans="1:1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A2106" s="21" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="2107" spans="1:1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A2107" s="21" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2108" spans="1:1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A2108" s="22" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="2132" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2132" s="8" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="2152" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2152" s="8" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="2154" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A2154" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="2171" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2171" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="2226" spans="1:1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A2226" s="21" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="2227" spans="1:1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A2227" s="21" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="2228" spans="1:1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A2228" s="21" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2229" spans="1:1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A2229" s="22" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="2240" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2240" s="8" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="2262" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2262" s="8" t="s">
+        <v>304</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="19"/>

--- a/web-django_document.xlsx
+++ b/web-django_document.xlsx
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -7027,15 +7028,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>120436</xdr:colOff>
+      <xdr:colOff>168061</xdr:colOff>
       <xdr:row>1558</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>654955</xdr:colOff>
+      <xdr:colOff>702580</xdr:colOff>
       <xdr:row>1572</xdr:row>
-      <xdr:rowOff>65770</xdr:rowOff>
+      <xdr:rowOff>46720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7052,7 +7053,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="120436" y="269005049"/>
+          <a:off x="168061" y="268985999"/>
           <a:ext cx="6097119" cy="2427971"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8470,8 +8471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F2262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2231" workbookViewId="0">
-      <selection activeCell="E2266" sqref="E2266"/>
+    <sheetView tabSelected="1" topLeftCell="A1821" workbookViewId="0">
+      <selection activeCell="J1846" sqref="J1846"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
